--- a/database/industries/siman/sekord/product/monthly.xlsx
+++ b/database/industries/siman/sekord/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekord\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808062C7-6F5C-4878-8226-483D588C0DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980646C-C327-4C46-8ADA-54B4C29C1EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 2 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1415,16 +1415,16 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
-        <v>519</v>
+        <v>3765</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -1436,26 +1436,26 @@
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <v>0</v>
+        <v>5143</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="N11" s="11">
-        <v>5143</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11">
-        <v>3785</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
         <v>6237</v>
       </c>
+      <c r="Q11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1483,86 +1483,86 @@
       <c r="AA11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>57</v>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AE11" s="11">
         <v>0</v>
       </c>
       <c r="AF11" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AG11" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AH11" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AK11" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AL11" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AM11" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AN11" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AO11" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AP11" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AQ11" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AR11" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AS11" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AT11" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AU11" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AV11" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AW11" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AX11" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AY11" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AZ11" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1574,47 +1574,47 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>74025</v>
+        <v>56230</v>
       </c>
       <c r="F12" s="13">
-        <v>59446</v>
+        <v>33550</v>
       </c>
       <c r="G12" s="13">
-        <v>56230</v>
+        <v>25536</v>
       </c>
       <c r="H12" s="13">
-        <v>33550</v>
+        <v>38374</v>
       </c>
       <c r="I12" s="13">
-        <v>25536</v>
+        <v>60036</v>
       </c>
       <c r="J12" s="13">
-        <v>38374</v>
+        <v>52367</v>
       </c>
       <c r="K12" s="13">
-        <v>60036</v>
+        <v>81996</v>
       </c>
       <c r="L12" s="13">
-        <v>52367</v>
+        <v>84124</v>
       </c>
       <c r="M12" s="13">
-        <v>81996</v>
+        <v>82257</v>
       </c>
       <c r="N12" s="13">
-        <v>84124</v>
+        <v>69435</v>
       </c>
       <c r="O12" s="13">
-        <v>82257</v>
+        <v>85686</v>
       </c>
       <c r="P12" s="13">
-        <v>69435</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>85686</v>
-      </c>
-      <c r="R12" s="13">
         <v>88873</v>
       </c>
+      <c r="Q12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1642,86 +1642,86 @@
       <c r="AA12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>57</v>
+      <c r="AB12" s="13">
+        <v>60386</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>56057</v>
       </c>
       <c r="AD12" s="13">
-        <v>60386</v>
+        <v>20406</v>
       </c>
       <c r="AE12" s="13">
-        <v>56057</v>
+        <v>21824</v>
       </c>
       <c r="AF12" s="13">
-        <v>20406</v>
+        <v>26772</v>
       </c>
       <c r="AG12" s="13">
-        <v>21824</v>
+        <v>46784</v>
       </c>
       <c r="AH12" s="13">
-        <v>26772</v>
+        <v>49152</v>
       </c>
       <c r="AI12" s="13">
-        <v>46784</v>
+        <v>44281</v>
       </c>
       <c r="AJ12" s="13">
-        <v>49152</v>
+        <v>38245</v>
       </c>
       <c r="AK12" s="13">
-        <v>44281</v>
+        <v>31251</v>
       </c>
       <c r="AL12" s="13">
-        <v>38245</v>
+        <v>33343</v>
       </c>
       <c r="AM12" s="13">
-        <v>31251</v>
+        <v>45089</v>
       </c>
       <c r="AN12" s="13">
-        <v>33343</v>
+        <v>40727</v>
       </c>
       <c r="AO12" s="13">
-        <v>45089</v>
+        <v>37223</v>
       </c>
       <c r="AP12" s="13">
-        <v>40727</v>
+        <v>23082</v>
       </c>
       <c r="AQ12" s="13">
-        <v>37223</v>
+        <v>7600</v>
       </c>
       <c r="AR12" s="13">
-        <v>23082</v>
+        <v>9858</v>
       </c>
       <c r="AS12" s="13">
-        <v>7600</v>
+        <v>26695</v>
       </c>
       <c r="AT12" s="13">
-        <v>9858</v>
+        <v>41657</v>
       </c>
       <c r="AU12" s="13">
-        <v>26695</v>
+        <v>40650</v>
       </c>
       <c r="AV12" s="13">
-        <v>41657</v>
+        <v>54789</v>
       </c>
       <c r="AW12" s="13">
-        <v>40650</v>
+        <v>48155</v>
       </c>
       <c r="AX12" s="13">
-        <v>54789</v>
+        <v>31005</v>
       </c>
       <c r="AY12" s="13">
-        <v>48155</v>
+        <v>32562</v>
       </c>
       <c r="AZ12" s="13">
-        <v>31005</v>
+        <v>47036</v>
       </c>
       <c r="BA12" s="13">
-        <v>32562</v>
+        <v>40757</v>
       </c>
       <c r="BB12" s="13">
-        <v>47036</v>
+        <v>33880</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1768,44 +1768,44 @@
       <c r="P13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>57</v>
+      <c r="Q13" s="11">
+        <v>411</v>
+      </c>
+      <c r="R13" s="11">
+        <v>37783</v>
       </c>
       <c r="S13" s="11">
-        <v>411</v>
+        <v>20688</v>
       </c>
       <c r="T13" s="11">
-        <v>37783</v>
+        <v>77149</v>
       </c>
       <c r="U13" s="11">
-        <v>20688</v>
+        <v>36251</v>
       </c>
       <c r="V13" s="11">
-        <v>77149</v>
+        <v>5195</v>
       </c>
       <c r="W13" s="11">
-        <v>36251</v>
+        <v>17918</v>
       </c>
       <c r="X13" s="11">
-        <v>5195</v>
+        <v>9966</v>
       </c>
       <c r="Y13" s="11">
-        <v>17918</v>
+        <v>44074</v>
       </c>
       <c r="Z13" s="11">
-        <v>9966</v>
+        <v>48099</v>
       </c>
       <c r="AA13" s="11">
-        <v>44074</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>48099</v>
-      </c>
-      <c r="AC13" s="11">
         <v>1477</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>57</v>
@@ -1912,26 +1912,26 @@
       <c r="K14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>57</v>
+      <c r="L14" s="13">
+        <v>4876</v>
+      </c>
+      <c r="M14" s="13">
+        <v>198</v>
       </c>
       <c r="N14" s="13">
-        <v>4876</v>
+        <v>2850</v>
       </c>
       <c r="O14" s="13">
-        <v>198</v>
+        <v>734</v>
       </c>
       <c r="P14" s="13">
-        <v>2850</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>734</v>
-      </c>
-      <c r="R14" s="13">
         <v>872</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>57</v>
@@ -2051,154 +2051,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>6516</v>
+        <v>12384</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="H15" s="11">
-        <v>12384</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>6800</v>
+        <v>1587</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>6098</v>
       </c>
       <c r="K15" s="11">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>6098</v>
+        <v>10224</v>
       </c>
       <c r="M15" s="11">
-        <v>0</v>
+        <v>4321</v>
       </c>
       <c r="N15" s="11">
-        <v>10224</v>
+        <v>6733</v>
       </c>
       <c r="O15" s="11">
-        <v>4321</v>
+        <v>5140</v>
       </c>
       <c r="P15" s="11">
-        <v>6733</v>
+        <v>5769</v>
       </c>
       <c r="Q15" s="11">
-        <v>5140</v>
+        <v>5776</v>
       </c>
       <c r="R15" s="11">
-        <v>5769</v>
+        <v>5627</v>
       </c>
       <c r="S15" s="11">
-        <v>5776</v>
+        <v>5234</v>
       </c>
       <c r="T15" s="11">
-        <v>5627</v>
+        <v>6191</v>
       </c>
       <c r="U15" s="11">
-        <v>5234</v>
+        <v>5973</v>
       </c>
       <c r="V15" s="11">
-        <v>6191</v>
+        <v>6123</v>
       </c>
       <c r="W15" s="11">
-        <v>5973</v>
+        <v>5843</v>
       </c>
       <c r="X15" s="11">
-        <v>6123</v>
+        <v>5802</v>
       </c>
       <c r="Y15" s="11">
-        <v>5843</v>
+        <v>6613</v>
       </c>
       <c r="Z15" s="11">
-        <v>5802</v>
+        <v>5712</v>
       </c>
       <c r="AA15" s="11">
-        <v>6613</v>
+        <v>7349</v>
       </c>
       <c r="AB15" s="11">
-        <v>5712</v>
+        <v>7097</v>
       </c>
       <c r="AC15" s="11">
-        <v>7349</v>
+        <v>5183</v>
       </c>
       <c r="AD15" s="11">
-        <v>7097</v>
+        <v>5270</v>
       </c>
       <c r="AE15" s="11">
-        <v>5183</v>
+        <v>5404</v>
       </c>
       <c r="AF15" s="11">
-        <v>5270</v>
+        <v>4384</v>
       </c>
       <c r="AG15" s="11">
-        <v>5404</v>
+        <v>6454</v>
       </c>
       <c r="AH15" s="11">
-        <v>4384</v>
+        <v>5326</v>
       </c>
       <c r="AI15" s="11">
-        <v>6454</v>
+        <v>7092</v>
       </c>
       <c r="AJ15" s="11">
-        <v>5326</v>
+        <v>6219</v>
       </c>
       <c r="AK15" s="11">
-        <v>7092</v>
+        <v>2946</v>
       </c>
       <c r="AL15" s="11">
-        <v>6219</v>
+        <v>4475</v>
       </c>
       <c r="AM15" s="11">
-        <v>2946</v>
+        <v>5836</v>
       </c>
       <c r="AN15" s="11">
-        <v>4475</v>
+        <v>5851</v>
       </c>
       <c r="AO15" s="11">
-        <v>5836</v>
+        <v>6267</v>
       </c>
       <c r="AP15" s="11">
-        <v>5851</v>
+        <v>5958</v>
       </c>
       <c r="AQ15" s="11">
-        <v>6267</v>
+        <v>1773</v>
       </c>
       <c r="AR15" s="11">
-        <v>5958</v>
+        <v>2232</v>
       </c>
       <c r="AS15" s="11">
-        <v>1773</v>
+        <v>5322</v>
       </c>
       <c r="AT15" s="11">
-        <v>2232</v>
+        <v>4766</v>
       </c>
       <c r="AU15" s="11">
-        <v>5322</v>
+        <v>6194</v>
       </c>
       <c r="AV15" s="11">
-        <v>4766</v>
+        <v>7759</v>
       </c>
       <c r="AW15" s="11">
-        <v>6194</v>
+        <v>5190</v>
       </c>
       <c r="AX15" s="11">
-        <v>7759</v>
+        <v>6676</v>
       </c>
       <c r="AY15" s="11">
-        <v>5190</v>
+        <v>7014</v>
       </c>
       <c r="AZ15" s="11">
-        <v>6676</v>
+        <v>6008</v>
       </c>
       <c r="BA15" s="11">
-        <v>7014</v>
+        <v>5675</v>
       </c>
       <c r="BB15" s="11">
-        <v>6008</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2245,11 +2245,11 @@
       <c r="P16" s="13">
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
+      <c r="Q16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S16" s="13" t="s">
         <v>57</v>
@@ -2405,43 +2405,43 @@
         <v>0</v>
       </c>
       <c r="Q17" s="11">
-        <v>0</v>
+        <v>75613</v>
       </c>
       <c r="R17" s="11">
-        <v>0</v>
+        <v>37667</v>
       </c>
       <c r="S17" s="11">
-        <v>75613</v>
+        <v>39479</v>
       </c>
       <c r="T17" s="11">
-        <v>37667</v>
+        <v>26330</v>
       </c>
       <c r="U17" s="11">
-        <v>39479</v>
+        <v>45692</v>
       </c>
       <c r="V17" s="11">
-        <v>26330</v>
+        <v>59986</v>
       </c>
       <c r="W17" s="11">
-        <v>45692</v>
+        <v>88456</v>
       </c>
       <c r="X17" s="11">
-        <v>59986</v>
+        <v>85503</v>
       </c>
       <c r="Y17" s="11">
-        <v>88456</v>
+        <v>59011</v>
       </c>
       <c r="Z17" s="11">
-        <v>85503</v>
+        <v>44433</v>
       </c>
       <c r="AA17" s="11">
-        <v>59011</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>44433</v>
-      </c>
-      <c r="AC17" s="11">
         <v>58560</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD17" s="11" t="s">
         <v>57</v>
@@ -2651,11 +2651,11 @@
       <c r="AA19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>57</v>
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
       </c>
       <c r="AD19" s="17">
         <v>0</v>
@@ -2740,154 +2740,154 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19">
-        <v>81218</v>
+        <v>56230</v>
       </c>
       <c r="F20" s="19">
-        <v>66481</v>
+        <v>49699</v>
       </c>
       <c r="G20" s="19">
-        <v>56230</v>
+        <v>32336</v>
       </c>
       <c r="H20" s="19">
-        <v>49699</v>
+        <v>38374</v>
       </c>
       <c r="I20" s="19">
-        <v>32336</v>
+        <v>61623</v>
       </c>
       <c r="J20" s="19">
-        <v>38374</v>
+        <v>58465</v>
       </c>
       <c r="K20" s="19">
-        <v>61623</v>
+        <v>81996</v>
       </c>
       <c r="L20" s="19">
-        <v>58465</v>
+        <v>104367</v>
       </c>
       <c r="M20" s="19">
-        <v>81996</v>
+        <v>90561</v>
       </c>
       <c r="N20" s="19">
-        <v>104367</v>
+        <v>79018</v>
       </c>
       <c r="O20" s="19">
-        <v>90561</v>
+        <v>91560</v>
       </c>
       <c r="P20" s="19">
-        <v>79018</v>
+        <v>101751</v>
       </c>
       <c r="Q20" s="19">
-        <v>91560</v>
+        <v>81800</v>
       </c>
       <c r="R20" s="19">
-        <v>101751</v>
+        <v>81077</v>
       </c>
       <c r="S20" s="19">
-        <v>81800</v>
+        <v>65401</v>
       </c>
       <c r="T20" s="19">
-        <v>81077</v>
+        <v>109670</v>
       </c>
       <c r="U20" s="19">
-        <v>65401</v>
+        <v>87916</v>
       </c>
       <c r="V20" s="19">
-        <v>109670</v>
+        <v>71304</v>
       </c>
       <c r="W20" s="19">
-        <v>87916</v>
+        <v>112217</v>
       </c>
       <c r="X20" s="19">
-        <v>71304</v>
+        <v>101271</v>
       </c>
       <c r="Y20" s="19">
-        <v>112217</v>
+        <v>109698</v>
       </c>
       <c r="Z20" s="19">
-        <v>101271</v>
+        <v>98244</v>
       </c>
       <c r="AA20" s="19">
-        <v>109698</v>
+        <v>67386</v>
       </c>
       <c r="AB20" s="19">
-        <v>98244</v>
+        <v>67483</v>
       </c>
       <c r="AC20" s="19">
-        <v>67386</v>
+        <v>61240</v>
       </c>
       <c r="AD20" s="19">
-        <v>67483</v>
+        <v>39785</v>
       </c>
       <c r="AE20" s="19">
-        <v>61240</v>
+        <v>27228</v>
       </c>
       <c r="AF20" s="19">
-        <v>39785</v>
+        <v>42036</v>
       </c>
       <c r="AG20" s="19">
-        <v>27228</v>
+        <v>109255</v>
       </c>
       <c r="AH20" s="19">
-        <v>42036</v>
+        <v>54478</v>
       </c>
       <c r="AI20" s="19">
-        <v>109255</v>
+        <v>51373</v>
       </c>
       <c r="AJ20" s="19">
-        <v>54478</v>
+        <v>88718</v>
       </c>
       <c r="AK20" s="19">
-        <v>51373</v>
+        <v>59219</v>
       </c>
       <c r="AL20" s="19">
-        <v>88718</v>
+        <v>71389</v>
       </c>
       <c r="AM20" s="19">
-        <v>59219</v>
+        <v>90272</v>
       </c>
       <c r="AN20" s="19">
-        <v>71389</v>
+        <v>67373</v>
       </c>
       <c r="AO20" s="19">
-        <v>90272</v>
+        <v>75255</v>
       </c>
       <c r="AP20" s="19">
-        <v>67373</v>
+        <v>75443</v>
       </c>
       <c r="AQ20" s="19">
-        <v>75255</v>
+        <v>24494</v>
       </c>
       <c r="AR20" s="19">
-        <v>75443</v>
+        <v>67120</v>
       </c>
       <c r="AS20" s="19">
-        <v>24494</v>
+        <v>98494</v>
       </c>
       <c r="AT20" s="19">
-        <v>67120</v>
+        <v>96559</v>
       </c>
       <c r="AU20" s="19">
-        <v>98494</v>
+        <v>75349</v>
       </c>
       <c r="AV20" s="19">
-        <v>96559</v>
+        <v>72548</v>
       </c>
       <c r="AW20" s="19">
-        <v>75349</v>
+        <v>73345</v>
       </c>
       <c r="AX20" s="19">
-        <v>72548</v>
+        <v>57681</v>
       </c>
       <c r="AY20" s="19">
-        <v>73345</v>
+        <v>43395</v>
       </c>
       <c r="AZ20" s="19">
-        <v>57681</v>
+        <v>53044</v>
       </c>
       <c r="BA20" s="19">
-        <v>43395</v>
+        <v>46432</v>
       </c>
       <c r="BB20" s="19">
-        <v>53044</v>
+        <v>75564</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3333,16 +3333,16 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>936</v>
+        <v>2385</v>
       </c>
       <c r="F27" s="11">
-        <v>519</v>
+        <v>1380</v>
       </c>
       <c r="G27" s="11">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <v>0</v>
@@ -3354,26 +3354,26 @@
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>0</v>
+        <v>11871</v>
       </c>
       <c r="M27" s="11">
         <v>0</v>
       </c>
       <c r="N27" s="11">
-        <v>11871</v>
+        <v>0</v>
       </c>
       <c r="O27" s="11">
         <v>0</v>
       </c>
       <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
-      <c r="R27" s="11">
         <v>6237</v>
       </c>
+      <c r="Q27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="S27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3401,86 +3401,86 @@
       <c r="AA27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>57</v>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>0</v>
       </c>
       <c r="AD27" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AE27" s="11">
         <v>0</v>
       </c>
       <c r="AF27" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AG27" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AH27" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AK27" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AL27" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AM27" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AN27" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AO27" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AP27" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AQ27" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AR27" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AS27" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AT27" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AU27" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AV27" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AW27" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AX27" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AY27" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AZ27" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3527,11 +3527,11 @@
       <c r="P28" s="13">
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
-        <v>0</v>
-      </c>
-      <c r="R28" s="13">
-        <v>0</v>
+      <c r="Q28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S28" s="13" t="s">
         <v>57</v>
@@ -3560,86 +3560,86 @@
       <c r="AA28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>57</v>
+      <c r="AB28" s="13">
+        <v>62774</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>51932</v>
       </c>
       <c r="AD28" s="13">
-        <v>62774</v>
+        <v>25581</v>
       </c>
       <c r="AE28" s="13">
-        <v>51932</v>
+        <v>21938</v>
       </c>
       <c r="AF28" s="13">
-        <v>25581</v>
+        <v>21134</v>
       </c>
       <c r="AG28" s="13">
-        <v>21938</v>
+        <v>47307</v>
       </c>
       <c r="AH28" s="13">
-        <v>21134</v>
+        <v>47330</v>
       </c>
       <c r="AI28" s="13">
-        <v>47307</v>
+        <v>49149</v>
       </c>
       <c r="AJ28" s="13">
-        <v>47330</v>
+        <v>40285</v>
       </c>
       <c r="AK28" s="13">
-        <v>49149</v>
+        <v>25526</v>
       </c>
       <c r="AL28" s="13">
-        <v>40285</v>
+        <v>36204</v>
       </c>
       <c r="AM28" s="13">
-        <v>25526</v>
+        <v>48527</v>
       </c>
       <c r="AN28" s="13">
-        <v>36204</v>
+        <v>40867</v>
       </c>
       <c r="AO28" s="13">
-        <v>48527</v>
+        <v>31311</v>
       </c>
       <c r="AP28" s="13">
-        <v>40867</v>
+        <v>24699</v>
       </c>
       <c r="AQ28" s="13">
-        <v>31311</v>
+        <v>14158</v>
       </c>
       <c r="AR28" s="13">
-        <v>24699</v>
+        <v>14113</v>
       </c>
       <c r="AS28" s="13">
-        <v>14158</v>
+        <v>27893</v>
       </c>
       <c r="AT28" s="13">
-        <v>14113</v>
+        <v>31202</v>
       </c>
       <c r="AU28" s="13">
-        <v>27893</v>
+        <v>48443</v>
       </c>
       <c r="AV28" s="13">
-        <v>31202</v>
+        <v>54321</v>
       </c>
       <c r="AW28" s="13">
-        <v>48443</v>
+        <v>41891</v>
       </c>
       <c r="AX28" s="13">
-        <v>54321</v>
+        <v>31461</v>
       </c>
       <c r="AY28" s="13">
-        <v>41891</v>
+        <v>38913</v>
       </c>
       <c r="AZ28" s="13">
-        <v>31461</v>
+        <v>39577</v>
       </c>
       <c r="BA28" s="13">
-        <v>38913</v>
+        <v>39523</v>
       </c>
       <c r="BB28" s="13">
-        <v>39577</v>
+        <v>30793</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3686,44 +3686,44 @@
       <c r="P29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>57</v>
+      <c r="Q29" s="11">
+        <v>411</v>
+      </c>
+      <c r="R29" s="11">
+        <v>37783</v>
       </c>
       <c r="S29" s="11">
-        <v>411</v>
+        <v>20688</v>
       </c>
       <c r="T29" s="11">
-        <v>37783</v>
+        <v>77149</v>
       </c>
       <c r="U29" s="11">
-        <v>20688</v>
+        <v>36251</v>
       </c>
       <c r="V29" s="11">
-        <v>77149</v>
+        <v>5195</v>
       </c>
       <c r="W29" s="11">
-        <v>36251</v>
+        <v>17918</v>
       </c>
       <c r="X29" s="11">
-        <v>5195</v>
+        <v>9966</v>
       </c>
       <c r="Y29" s="11">
-        <v>17918</v>
+        <v>44074</v>
       </c>
       <c r="Z29" s="11">
-        <v>9966</v>
+        <v>5273</v>
       </c>
       <c r="AA29" s="11">
-        <v>44074</v>
-      </c>
-      <c r="AB29" s="11">
-        <v>5273</v>
-      </c>
-      <c r="AC29" s="11">
         <v>1477</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD29" s="11" t="s">
         <v>57</v>
@@ -3830,26 +3830,26 @@
       <c r="K30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>57</v>
+      <c r="L30" s="13">
+        <v>4876</v>
+      </c>
+      <c r="M30" s="13">
+        <v>198</v>
       </c>
       <c r="N30" s="13">
-        <v>4876</v>
+        <v>2106</v>
       </c>
       <c r="O30" s="13">
-        <v>198</v>
+        <v>1117</v>
       </c>
       <c r="P30" s="13">
-        <v>2106</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>1117</v>
-      </c>
-      <c r="R30" s="13">
         <v>244</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S30" s="13" t="s">
         <v>57</v>
@@ -3969,154 +3969,154 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>6006</v>
+        <v>5003</v>
       </c>
       <c r="F31" s="11">
-        <v>6510</v>
+        <v>5314</v>
       </c>
       <c r="G31" s="11">
-        <v>5003</v>
+        <v>5735</v>
       </c>
       <c r="H31" s="11">
-        <v>5314</v>
+        <v>2423</v>
       </c>
       <c r="I31" s="11">
+        <v>1255</v>
+      </c>
+      <c r="J31" s="11">
+        <v>5002</v>
+      </c>
+      <c r="K31" s="11">
+        <v>7606</v>
+      </c>
+      <c r="L31" s="11">
         <v>5735</v>
       </c>
-      <c r="J31" s="11">
-        <v>2423</v>
-      </c>
-      <c r="K31" s="11">
-        <v>1255</v>
-      </c>
-      <c r="L31" s="11">
-        <v>5002</v>
-      </c>
       <c r="M31" s="11">
-        <v>7606</v>
+        <v>5095</v>
       </c>
       <c r="N31" s="11">
-        <v>5735</v>
+        <v>7205</v>
       </c>
       <c r="O31" s="11">
-        <v>5095</v>
+        <v>4967</v>
       </c>
       <c r="P31" s="11">
-        <v>7205</v>
+        <v>5207</v>
       </c>
       <c r="Q31" s="11">
-        <v>4967</v>
+        <v>5548</v>
       </c>
       <c r="R31" s="11">
-        <v>5207</v>
+        <v>6170</v>
       </c>
       <c r="S31" s="11">
-        <v>5548</v>
+        <v>5029</v>
       </c>
       <c r="T31" s="11">
-        <v>6170</v>
+        <v>5030</v>
       </c>
       <c r="U31" s="11">
-        <v>5029</v>
+        <v>5893</v>
       </c>
       <c r="V31" s="11">
-        <v>5030</v>
+        <v>4529</v>
       </c>
       <c r="W31" s="11">
-        <v>5893</v>
+        <v>5036</v>
       </c>
       <c r="X31" s="11">
-        <v>4529</v>
+        <v>5889</v>
       </c>
       <c r="Y31" s="11">
-        <v>5036</v>
+        <v>6279</v>
       </c>
       <c r="Z31" s="11">
-        <v>5889</v>
+        <v>6374</v>
       </c>
       <c r="AA31" s="11">
-        <v>6279</v>
+        <v>6990</v>
       </c>
       <c r="AB31" s="11">
-        <v>6374</v>
+        <v>6377</v>
       </c>
       <c r="AC31" s="11">
-        <v>6990</v>
+        <v>5354</v>
       </c>
       <c r="AD31" s="11">
-        <v>6377</v>
+        <v>6610</v>
       </c>
       <c r="AE31" s="11">
-        <v>5354</v>
+        <v>5342</v>
       </c>
       <c r="AF31" s="11">
-        <v>6610</v>
+        <v>4398</v>
       </c>
       <c r="AG31" s="11">
-        <v>5342</v>
+        <v>6123</v>
       </c>
       <c r="AH31" s="11">
-        <v>4398</v>
+        <v>4048</v>
       </c>
       <c r="AI31" s="11">
-        <v>6123</v>
+        <v>8748</v>
       </c>
       <c r="AJ31" s="11">
-        <v>4048</v>
+        <v>5981</v>
       </c>
       <c r="AK31" s="11">
-        <v>8748</v>
+        <v>3660</v>
       </c>
       <c r="AL31" s="11">
-        <v>5981</v>
+        <v>5097</v>
       </c>
       <c r="AM31" s="11">
-        <v>3660</v>
+        <v>6474</v>
       </c>
       <c r="AN31" s="11">
-        <v>5097</v>
+        <v>6689</v>
       </c>
       <c r="AO31" s="11">
-        <v>6474</v>
+        <v>6790</v>
       </c>
       <c r="AP31" s="11">
-        <v>6689</v>
+        <v>6117</v>
       </c>
       <c r="AQ31" s="11">
-        <v>6790</v>
+        <v>1817</v>
       </c>
       <c r="AR31" s="11">
-        <v>6117</v>
+        <v>1320</v>
       </c>
       <c r="AS31" s="11">
-        <v>1817</v>
+        <v>4876</v>
       </c>
       <c r="AT31" s="11">
-        <v>1320</v>
+        <v>5297</v>
       </c>
       <c r="AU31" s="11">
-        <v>4876</v>
+        <v>6853</v>
       </c>
       <c r="AV31" s="11">
-        <v>5297</v>
+        <v>7859</v>
       </c>
       <c r="AW31" s="11">
-        <v>6853</v>
+        <v>6258</v>
       </c>
       <c r="AX31" s="11">
-        <v>7859</v>
+        <v>6109</v>
       </c>
       <c r="AY31" s="11">
-        <v>6258</v>
+        <v>8026</v>
       </c>
       <c r="AZ31" s="11">
-        <v>6109</v>
+        <v>6548</v>
       </c>
       <c r="BA31" s="11">
-        <v>8026</v>
+        <v>5853</v>
       </c>
       <c r="BB31" s="11">
-        <v>6548</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4128,46 +4128,46 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>6936</v>
+        <v>7288</v>
       </c>
       <c r="F32" s="13">
-        <v>6398</v>
+        <v>370</v>
       </c>
       <c r="G32" s="13">
-        <v>7288</v>
+        <v>1029</v>
       </c>
       <c r="H32" s="13">
-        <v>370</v>
+        <v>1214</v>
       </c>
       <c r="I32" s="13">
-        <v>1029</v>
+        <v>2665</v>
       </c>
       <c r="J32" s="13">
-        <v>1214</v>
+        <v>3145</v>
       </c>
       <c r="K32" s="13">
-        <v>2665</v>
+        <v>1315</v>
       </c>
       <c r="L32" s="13">
-        <v>3145</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
-        <v>1315</v>
+        <v>580</v>
       </c>
       <c r="N32" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O32" s="13">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="P32" s="13">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>0</v>
-      </c>
-      <c r="R32" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S32" s="13" t="s">
         <v>57</v>
@@ -4287,79 +4287,79 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>68523</v>
+        <v>47791</v>
       </c>
       <c r="F33" s="11">
-        <v>60407</v>
+        <v>33295</v>
       </c>
       <c r="G33" s="11">
-        <v>47791</v>
+        <v>25038</v>
       </c>
       <c r="H33" s="11">
-        <v>33295</v>
+        <v>36497</v>
       </c>
       <c r="I33" s="11">
-        <v>25038</v>
+        <v>60538</v>
       </c>
       <c r="J33" s="11">
-        <v>36497</v>
+        <v>48925</v>
       </c>
       <c r="K33" s="11">
-        <v>60538</v>
+        <v>85559</v>
       </c>
       <c r="L33" s="11">
-        <v>48925</v>
+        <v>87132</v>
       </c>
       <c r="M33" s="11">
-        <v>85559</v>
+        <v>75700</v>
       </c>
       <c r="N33" s="11">
-        <v>87132</v>
+        <v>68540</v>
       </c>
       <c r="O33" s="11">
-        <v>75700</v>
+        <v>86655</v>
       </c>
       <c r="P33" s="11">
-        <v>68540</v>
+        <v>90287</v>
       </c>
       <c r="Q33" s="11">
-        <v>86655</v>
+        <v>71045</v>
       </c>
       <c r="R33" s="11">
-        <v>90287</v>
+        <v>42762</v>
       </c>
       <c r="S33" s="11">
-        <v>71045</v>
+        <v>34509</v>
       </c>
       <c r="T33" s="11">
-        <v>42762</v>
+        <v>27789</v>
       </c>
       <c r="U33" s="11">
-        <v>34509</v>
+        <v>43072</v>
       </c>
       <c r="V33" s="11">
-        <v>27789</v>
+        <v>62893</v>
       </c>
       <c r="W33" s="11">
-        <v>43072</v>
+        <v>93721</v>
       </c>
       <c r="X33" s="11">
-        <v>62893</v>
+        <v>77200</v>
       </c>
       <c r="Y33" s="11">
-        <v>93721</v>
+        <v>60702</v>
       </c>
       <c r="Z33" s="11">
-        <v>77200</v>
+        <v>44197</v>
       </c>
       <c r="AA33" s="11">
-        <v>60702</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>44197</v>
-      </c>
-      <c r="AC33" s="11">
         <v>59360</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD33" s="11" t="s">
         <v>57</v>
@@ -4569,11 +4569,11 @@
       <c r="AA35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>57</v>
+      <c r="AB35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>0</v>
       </c>
       <c r="AD35" s="17">
         <v>0</v>
@@ -4783,11 +4783,11 @@
       <c r="AA37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC37" s="17" t="s">
-        <v>57</v>
+      <c r="AB37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>0</v>
       </c>
       <c r="AD37" s="17">
         <v>0</v>
@@ -4872,154 +4872,154 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19">
-        <v>82401</v>
+        <v>62467</v>
       </c>
       <c r="F38" s="19">
-        <v>73834</v>
+        <v>40359</v>
       </c>
       <c r="G38" s="19">
-        <v>62467</v>
+        <v>31802</v>
       </c>
       <c r="H38" s="19">
-        <v>40359</v>
+        <v>40134</v>
       </c>
       <c r="I38" s="19">
-        <v>31802</v>
+        <v>64458</v>
       </c>
       <c r="J38" s="19">
-        <v>40134</v>
+        <v>57072</v>
       </c>
       <c r="K38" s="19">
-        <v>64458</v>
+        <v>94480</v>
       </c>
       <c r="L38" s="19">
-        <v>57072</v>
+        <v>109614</v>
       </c>
       <c r="M38" s="19">
-        <v>94480</v>
+        <v>81573</v>
       </c>
       <c r="N38" s="19">
-        <v>109614</v>
+        <v>77875</v>
       </c>
       <c r="O38" s="19">
-        <v>81573</v>
+        <v>92739</v>
       </c>
       <c r="P38" s="19">
-        <v>77875</v>
+        <v>101975</v>
       </c>
       <c r="Q38" s="19">
-        <v>92739</v>
+        <v>77004</v>
       </c>
       <c r="R38" s="19">
-        <v>101975</v>
+        <v>86715</v>
       </c>
       <c r="S38" s="19">
-        <v>77004</v>
+        <v>60226</v>
       </c>
       <c r="T38" s="19">
-        <v>86715</v>
+        <v>109968</v>
       </c>
       <c r="U38" s="19">
-        <v>60226</v>
+        <v>85216</v>
       </c>
       <c r="V38" s="19">
-        <v>109968</v>
+        <v>72617</v>
       </c>
       <c r="W38" s="19">
-        <v>85216</v>
+        <v>116675</v>
       </c>
       <c r="X38" s="19">
-        <v>72617</v>
+        <v>93055</v>
       </c>
       <c r="Y38" s="19">
-        <v>116675</v>
+        <v>111055</v>
       </c>
       <c r="Z38" s="19">
-        <v>93055</v>
+        <v>55844</v>
       </c>
       <c r="AA38" s="19">
-        <v>111055</v>
+        <v>67827</v>
       </c>
       <c r="AB38" s="19">
-        <v>55844</v>
+        <v>69151</v>
       </c>
       <c r="AC38" s="19">
-        <v>67827</v>
+        <v>57286</v>
       </c>
       <c r="AD38" s="19">
-        <v>69151</v>
+        <v>46300</v>
       </c>
       <c r="AE38" s="19">
-        <v>57286</v>
+        <v>27280</v>
       </c>
       <c r="AF38" s="19">
-        <v>46300</v>
+        <v>36412</v>
       </c>
       <c r="AG38" s="19">
-        <v>27280</v>
+        <v>109447</v>
       </c>
       <c r="AH38" s="19">
-        <v>36412</v>
+        <v>51378</v>
       </c>
       <c r="AI38" s="19">
-        <v>109447</v>
+        <v>57897</v>
       </c>
       <c r="AJ38" s="19">
-        <v>51378</v>
+        <v>90520</v>
       </c>
       <c r="AK38" s="19">
-        <v>57897</v>
+        <v>54208</v>
       </c>
       <c r="AL38" s="19">
-        <v>90520</v>
+        <v>74872</v>
       </c>
       <c r="AM38" s="19">
-        <v>54208</v>
+        <v>94348</v>
       </c>
       <c r="AN38" s="19">
-        <v>74872</v>
+        <v>68351</v>
       </c>
       <c r="AO38" s="19">
-        <v>94348</v>
+        <v>69866</v>
       </c>
       <c r="AP38" s="19">
-        <v>68351</v>
+        <v>77219</v>
       </c>
       <c r="AQ38" s="19">
-        <v>69866</v>
+        <v>31096</v>
       </c>
       <c r="AR38" s="19">
-        <v>77219</v>
+        <v>70463</v>
       </c>
       <c r="AS38" s="19">
-        <v>31096</v>
+        <v>99246</v>
       </c>
       <c r="AT38" s="19">
-        <v>70463</v>
+        <v>86635</v>
       </c>
       <c r="AU38" s="19">
-        <v>99246</v>
+        <v>83801</v>
       </c>
       <c r="AV38" s="19">
-        <v>86635</v>
+        <v>72180</v>
       </c>
       <c r="AW38" s="19">
-        <v>83801</v>
+        <v>68149</v>
       </c>
       <c r="AX38" s="19">
-        <v>72180</v>
+        <v>57570</v>
       </c>
       <c r="AY38" s="19">
-        <v>68149</v>
+        <v>50758</v>
       </c>
       <c r="AZ38" s="19">
-        <v>57570</v>
+        <v>46125</v>
       </c>
       <c r="BA38" s="19">
-        <v>50758</v>
+        <v>45376</v>
       </c>
       <c r="BB38" s="19">
-        <v>46125</v>
+        <v>72968</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5465,16 +5465,16 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>974</v>
+        <v>2091</v>
       </c>
       <c r="F45" s="11">
-        <v>452</v>
+        <v>1249</v>
       </c>
       <c r="G45" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="H45" s="11">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="I45" s="11">
         <v>0</v>
@@ -5486,26 +5486,26 @@
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="M45" s="11">
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="O45" s="11">
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="11">
-        <v>0</v>
-      </c>
-      <c r="R45" s="11">
         <v>11326</v>
       </c>
+      <c r="Q45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="S45" s="11" t="s">
         <v>57</v>
       </c>
@@ -5533,86 +5533,86 @@
       <c r="AA45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC45" s="11" t="s">
-        <v>57</v>
+      <c r="AB45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>0</v>
       </c>
       <c r="AD45" s="11">
-        <v>0</v>
+        <v>60384</v>
       </c>
       <c r="AE45" s="11">
         <v>0</v>
       </c>
       <c r="AF45" s="11">
-        <v>60384</v>
+        <v>42826</v>
       </c>
       <c r="AG45" s="11">
-        <v>0</v>
+        <v>242064</v>
       </c>
       <c r="AH45" s="11">
-        <v>42826</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="11">
-        <v>242064</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="11">
-        <v>0</v>
+        <v>196183</v>
       </c>
       <c r="AK45" s="11">
-        <v>0</v>
+        <v>196101</v>
       </c>
       <c r="AL45" s="11">
-        <v>196183</v>
+        <v>184633</v>
       </c>
       <c r="AM45" s="11">
-        <v>196101</v>
+        <v>244366</v>
       </c>
       <c r="AN45" s="11">
-        <v>184633</v>
+        <v>155048</v>
       </c>
       <c r="AO45" s="11">
-        <v>244366</v>
+        <v>199137</v>
       </c>
       <c r="AP45" s="11">
-        <v>155048</v>
+        <v>299420</v>
       </c>
       <c r="AQ45" s="11">
-        <v>199137</v>
+        <v>97082</v>
       </c>
       <c r="AR45" s="11">
-        <v>299420</v>
+        <v>329677</v>
       </c>
       <c r="AS45" s="11">
-        <v>97082</v>
+        <v>422578</v>
       </c>
       <c r="AT45" s="11">
-        <v>329677</v>
+        <v>320043</v>
       </c>
       <c r="AU45" s="11">
-        <v>422578</v>
+        <v>185287</v>
       </c>
       <c r="AV45" s="11">
-        <v>320043</v>
+        <v>68669</v>
       </c>
       <c r="AW45" s="11">
-        <v>185287</v>
+        <v>139682</v>
       </c>
       <c r="AX45" s="11">
-        <v>68669</v>
+        <v>132643</v>
       </c>
       <c r="AY45" s="11">
-        <v>139682</v>
+        <v>22556</v>
       </c>
       <c r="AZ45" s="11">
-        <v>132643</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="11">
-        <v>22556</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="11">
-        <v>0</v>
+        <v>235839</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5659,11 +5659,11 @@
       <c r="P46" s="13">
         <v>0</v>
       </c>
-      <c r="Q46" s="13">
-        <v>0</v>
-      </c>
-      <c r="R46" s="13">
-        <v>0</v>
+      <c r="Q46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S46" s="13" t="s">
         <v>57</v>
@@ -5692,86 +5692,86 @@
       <c r="AA46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>57</v>
+      <c r="AB46" s="13">
+        <v>165672</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>140378</v>
       </c>
       <c r="AD46" s="13">
-        <v>165672</v>
+        <v>64842</v>
       </c>
       <c r="AE46" s="13">
-        <v>140378</v>
+        <v>54885</v>
       </c>
       <c r="AF46" s="13">
-        <v>64842</v>
+        <v>55580</v>
       </c>
       <c r="AG46" s="13">
-        <v>54885</v>
+        <v>123875</v>
       </c>
       <c r="AH46" s="13">
-        <v>55580</v>
+        <v>124775</v>
       </c>
       <c r="AI46" s="13">
-        <v>123875</v>
+        <v>181996</v>
       </c>
       <c r="AJ46" s="13">
-        <v>124775</v>
+        <v>148374</v>
       </c>
       <c r="AK46" s="13">
-        <v>181996</v>
+        <v>94153</v>
       </c>
       <c r="AL46" s="13">
-        <v>148374</v>
+        <v>223673</v>
       </c>
       <c r="AM46" s="13">
-        <v>94153</v>
+        <v>262463</v>
       </c>
       <c r="AN46" s="13">
-        <v>223673</v>
+        <v>180814</v>
       </c>
       <c r="AO46" s="13">
-        <v>262463</v>
+        <v>130491</v>
       </c>
       <c r="AP46" s="13">
-        <v>180814</v>
+        <v>100132</v>
       </c>
       <c r="AQ46" s="13">
-        <v>130491</v>
+        <v>54410</v>
       </c>
       <c r="AR46" s="13">
-        <v>100132</v>
+        <v>57866</v>
       </c>
       <c r="AS46" s="13">
-        <v>54410</v>
+        <v>136539</v>
       </c>
       <c r="AT46" s="13">
-        <v>57866</v>
+        <v>168762</v>
       </c>
       <c r="AU46" s="13">
-        <v>136539</v>
+        <v>247379</v>
       </c>
       <c r="AV46" s="13">
-        <v>168762</v>
+        <v>300713</v>
       </c>
       <c r="AW46" s="13">
-        <v>247379</v>
+        <v>260169</v>
       </c>
       <c r="AX46" s="13">
-        <v>300713</v>
+        <v>196268</v>
       </c>
       <c r="AY46" s="13">
-        <v>260169</v>
+        <v>238550</v>
       </c>
       <c r="AZ46" s="13">
-        <v>196268</v>
+        <v>238758</v>
       </c>
       <c r="BA46" s="13">
-        <v>238550</v>
+        <v>227185</v>
       </c>
       <c r="BB46" s="13">
-        <v>238758</v>
+        <v>177155</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5818,44 +5818,44 @@
       <c r="P47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>57</v>
+      <c r="Q47" s="11">
+        <v>718</v>
+      </c>
+      <c r="R47" s="11">
+        <v>75353</v>
       </c>
       <c r="S47" s="11">
-        <v>718</v>
+        <v>38453</v>
       </c>
       <c r="T47" s="11">
-        <v>75353</v>
+        <v>174233</v>
       </c>
       <c r="U47" s="11">
-        <v>38453</v>
+        <v>85618</v>
       </c>
       <c r="V47" s="11">
-        <v>174233</v>
+        <v>12615</v>
       </c>
       <c r="W47" s="11">
-        <v>85618</v>
+        <v>48146</v>
       </c>
       <c r="X47" s="11">
-        <v>12615</v>
+        <v>28787</v>
       </c>
       <c r="Y47" s="11">
-        <v>48146</v>
+        <v>155512</v>
       </c>
       <c r="Z47" s="11">
-        <v>28787</v>
+        <v>18379</v>
       </c>
       <c r="AA47" s="11">
-        <v>155512</v>
-      </c>
-      <c r="AB47" s="11">
-        <v>18379</v>
-      </c>
-      <c r="AC47" s="11">
         <v>5160</v>
+      </c>
+      <c r="AB47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD47" s="11" t="s">
         <v>57</v>
@@ -5962,26 +5962,26 @@
       <c r="K48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>57</v>
+      <c r="L48" s="13">
+        <v>806</v>
+      </c>
+      <c r="M48" s="13">
+        <v>142</v>
       </c>
       <c r="N48" s="13">
-        <v>806</v>
+        <v>3092</v>
       </c>
       <c r="O48" s="13">
-        <v>142</v>
+        <v>2056</v>
       </c>
       <c r="P48" s="13">
-        <v>3092</v>
-      </c>
-      <c r="Q48" s="13">
-        <v>2056</v>
-      </c>
-      <c r="R48" s="13">
         <v>449</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S48" s="13" t="s">
         <v>57</v>
@@ -6101,154 +6101,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>6597</v>
+        <v>5863</v>
       </c>
       <c r="F49" s="11">
-        <v>7001</v>
+        <v>5909</v>
       </c>
       <c r="G49" s="11">
-        <v>5863</v>
+        <v>7213</v>
       </c>
       <c r="H49" s="11">
-        <v>5909</v>
+        <v>2970</v>
       </c>
       <c r="I49" s="11">
-        <v>7213</v>
+        <v>1652</v>
       </c>
       <c r="J49" s="11">
-        <v>2970</v>
+        <v>6408</v>
       </c>
       <c r="K49" s="11">
-        <v>1652</v>
+        <v>8960</v>
       </c>
       <c r="L49" s="11">
-        <v>6408</v>
+        <v>8173</v>
       </c>
       <c r="M49" s="11">
-        <v>8960</v>
+        <v>6774</v>
       </c>
       <c r="N49" s="11">
+        <v>10694</v>
+      </c>
+      <c r="O49" s="11">
+        <v>7256</v>
+      </c>
+      <c r="P49" s="11">
+        <v>7564</v>
+      </c>
+      <c r="Q49" s="11">
         <v>8173</v>
       </c>
-      <c r="O49" s="11">
-        <v>6774</v>
-      </c>
-      <c r="P49" s="11">
-        <v>10694</v>
-      </c>
-      <c r="Q49" s="11">
-        <v>7256</v>
-      </c>
       <c r="R49" s="11">
-        <v>7564</v>
+        <v>8975</v>
       </c>
       <c r="S49" s="11">
-        <v>8173</v>
+        <v>7926</v>
       </c>
       <c r="T49" s="11">
-        <v>8975</v>
+        <v>8008</v>
       </c>
       <c r="U49" s="11">
-        <v>7926</v>
+        <v>9616</v>
       </c>
       <c r="V49" s="11">
-        <v>8008</v>
+        <v>7195</v>
       </c>
       <c r="W49" s="11">
-        <v>9616</v>
+        <v>8165</v>
       </c>
       <c r="X49" s="11">
-        <v>7195</v>
+        <v>10102</v>
       </c>
       <c r="Y49" s="11">
-        <v>8165</v>
+        <v>12024</v>
       </c>
       <c r="Z49" s="11">
-        <v>10102</v>
+        <v>16105</v>
       </c>
       <c r="AA49" s="11">
-        <v>12024</v>
+        <v>17186</v>
       </c>
       <c r="AB49" s="11">
-        <v>16105</v>
+        <v>20307</v>
       </c>
       <c r="AC49" s="11">
-        <v>17186</v>
+        <v>19822</v>
       </c>
       <c r="AD49" s="11">
-        <v>20307</v>
+        <v>20937</v>
       </c>
       <c r="AE49" s="11">
-        <v>19822</v>
+        <v>21112</v>
       </c>
       <c r="AF49" s="11">
-        <v>20937</v>
+        <v>17649</v>
       </c>
       <c r="AG49" s="11">
-        <v>21112</v>
+        <v>24159</v>
       </c>
       <c r="AH49" s="11">
-        <v>17649</v>
+        <v>14220</v>
       </c>
       <c r="AI49" s="11">
-        <v>24159</v>
+        <v>32519</v>
       </c>
       <c r="AJ49" s="11">
-        <v>14220</v>
+        <v>31505</v>
       </c>
       <c r="AK49" s="11">
-        <v>32519</v>
+        <v>27612</v>
       </c>
       <c r="AL49" s="11">
-        <v>31505</v>
+        <v>28067</v>
       </c>
       <c r="AM49" s="11">
-        <v>27612</v>
+        <v>42758</v>
       </c>
       <c r="AN49" s="11">
-        <v>28067</v>
+        <v>36085</v>
       </c>
       <c r="AO49" s="11">
-        <v>42758</v>
+        <v>41362</v>
       </c>
       <c r="AP49" s="11">
-        <v>36085</v>
+        <v>35285</v>
       </c>
       <c r="AQ49" s="11">
-        <v>41362</v>
+        <v>10020</v>
       </c>
       <c r="AR49" s="11">
-        <v>35285</v>
+        <v>7529</v>
       </c>
       <c r="AS49" s="11">
-        <v>10020</v>
+        <v>29149</v>
       </c>
       <c r="AT49" s="11">
-        <v>7529</v>
+        <v>31947</v>
       </c>
       <c r="AU49" s="11">
-        <v>29149</v>
+        <v>44783</v>
       </c>
       <c r="AV49" s="11">
-        <v>31947</v>
+        <v>50922</v>
       </c>
       <c r="AW49" s="11">
-        <v>44783</v>
+        <v>41762</v>
       </c>
       <c r="AX49" s="11">
-        <v>50922</v>
+        <v>40515</v>
       </c>
       <c r="AY49" s="11">
-        <v>41762</v>
+        <v>54279</v>
       </c>
       <c r="AZ49" s="11">
-        <v>40515</v>
+        <v>45484</v>
       </c>
       <c r="BA49" s="11">
-        <v>54279</v>
+        <v>40904</v>
       </c>
       <c r="BB49" s="11">
-        <v>45484</v>
+        <v>37217</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6260,46 +6260,46 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>8831</v>
+        <v>12325</v>
       </c>
       <c r="F50" s="13">
-        <v>10273</v>
+        <v>454</v>
       </c>
       <c r="G50" s="13">
-        <v>12325</v>
+        <v>1023</v>
       </c>
       <c r="H50" s="13">
-        <v>454</v>
+        <v>1776</v>
       </c>
       <c r="I50" s="13">
-        <v>1023</v>
+        <v>4170</v>
       </c>
       <c r="J50" s="13">
-        <v>1776</v>
+        <v>5272</v>
       </c>
       <c r="K50" s="13">
-        <v>4170</v>
+        <v>2300</v>
       </c>
       <c r="L50" s="13">
-        <v>5272</v>
+        <v>0</v>
       </c>
       <c r="M50" s="13">
-        <v>2300</v>
+        <v>580</v>
       </c>
       <c r="N50" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O50" s="13">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="P50" s="13">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="13">
-        <v>0</v>
-      </c>
-      <c r="R50" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S50" s="13" t="s">
         <v>57</v>
@@ -6419,79 +6419,79 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>85269</v>
+        <v>58536</v>
       </c>
       <c r="F51" s="11">
-        <v>75817</v>
+        <v>40902</v>
       </c>
       <c r="G51" s="11">
-        <v>58536</v>
+        <v>29700</v>
       </c>
       <c r="H51" s="11">
-        <v>40902</v>
+        <v>43307</v>
       </c>
       <c r="I51" s="11">
-        <v>29700</v>
+        <v>72360</v>
       </c>
       <c r="J51" s="11">
-        <v>43307</v>
+        <v>58414</v>
       </c>
       <c r="K51" s="11">
-        <v>72360</v>
+        <v>105375</v>
       </c>
       <c r="L51" s="11">
-        <v>58414</v>
+        <v>108631</v>
       </c>
       <c r="M51" s="11">
-        <v>105375</v>
+        <v>127061</v>
       </c>
       <c r="N51" s="11">
-        <v>108631</v>
+        <v>122671</v>
       </c>
       <c r="O51" s="11">
-        <v>127061</v>
+        <v>152830</v>
       </c>
       <c r="P51" s="11">
-        <v>122671</v>
+        <v>160764</v>
       </c>
       <c r="Q51" s="11">
-        <v>152830</v>
+        <v>126595</v>
       </c>
       <c r="R51" s="11">
-        <v>160764</v>
+        <v>70780</v>
       </c>
       <c r="S51" s="11">
-        <v>126595</v>
+        <v>55363</v>
       </c>
       <c r="T51" s="11">
-        <v>70780</v>
+        <v>44859</v>
       </c>
       <c r="U51" s="11">
-        <v>55363</v>
+        <v>73808</v>
       </c>
       <c r="V51" s="11">
-        <v>44859</v>
+        <v>116962</v>
       </c>
       <c r="W51" s="11">
-        <v>73808</v>
+        <v>171613</v>
       </c>
       <c r="X51" s="11">
-        <v>116962</v>
+        <v>143271</v>
       </c>
       <c r="Y51" s="11">
-        <v>171613</v>
+        <v>137286</v>
       </c>
       <c r="Z51" s="11">
-        <v>143271</v>
+        <v>107127</v>
       </c>
       <c r="AA51" s="11">
-        <v>137286</v>
-      </c>
-      <c r="AB51" s="11">
-        <v>107127</v>
-      </c>
-      <c r="AC51" s="11">
         <v>147445</v>
+      </c>
+      <c r="AB51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD51" s="11" t="s">
         <v>57</v>
@@ -6703,11 +6703,11 @@
       <c r="AA53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC53" s="17" t="s">
-        <v>57</v>
+      <c r="AB53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="17">
+        <v>0</v>
       </c>
       <c r="AD53" s="17">
         <v>0</v>
@@ -6919,11 +6919,11 @@
       <c r="AA55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC55" s="17" t="s">
-        <v>57</v>
+      <c r="AB55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
       </c>
       <c r="AD55" s="17">
         <v>0</v>
@@ -7135,11 +7135,11 @@
       <c r="AA57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>57</v>
+      <c r="AB57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0</v>
       </c>
       <c r="AD57" s="11">
         <v>0</v>
@@ -7224,154 +7224,154 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19">
-        <v>101671</v>
+        <v>78815</v>
       </c>
       <c r="F58" s="19">
-        <v>93543</v>
+        <v>48514</v>
       </c>
       <c r="G58" s="19">
-        <v>78815</v>
+        <v>37936</v>
       </c>
       <c r="H58" s="19">
-        <v>48514</v>
+        <v>48053</v>
       </c>
       <c r="I58" s="19">
-        <v>37936</v>
+        <v>78182</v>
       </c>
       <c r="J58" s="19">
-        <v>48053</v>
+        <v>70094</v>
       </c>
       <c r="K58" s="19">
-        <v>78182</v>
+        <v>116635</v>
       </c>
       <c r="L58" s="19">
-        <v>70094</v>
+        <v>140164</v>
       </c>
       <c r="M58" s="19">
-        <v>116635</v>
+        <v>134557</v>
       </c>
       <c r="N58" s="19">
-        <v>140164</v>
+        <v>136481</v>
       </c>
       <c r="O58" s="19">
-        <v>134557</v>
+        <v>162142</v>
       </c>
       <c r="P58" s="19">
-        <v>136481</v>
+        <v>180103</v>
       </c>
       <c r="Q58" s="19">
-        <v>162142</v>
+        <v>135486</v>
       </c>
       <c r="R58" s="19">
-        <v>180103</v>
+        <v>155108</v>
       </c>
       <c r="S58" s="19">
-        <v>135486</v>
+        <v>101742</v>
       </c>
       <c r="T58" s="19">
-        <v>155108</v>
+        <v>227100</v>
       </c>
       <c r="U58" s="19">
-        <v>101742</v>
+        <v>169042</v>
       </c>
       <c r="V58" s="19">
-        <v>227100</v>
+        <v>136772</v>
       </c>
       <c r="W58" s="19">
-        <v>169042</v>
+        <v>227924</v>
       </c>
       <c r="X58" s="19">
-        <v>136772</v>
+        <v>182160</v>
       </c>
       <c r="Y58" s="19">
-        <v>227924</v>
+        <v>304822</v>
       </c>
       <c r="Z58" s="19">
-        <v>182160</v>
+        <v>141611</v>
       </c>
       <c r="AA58" s="19">
-        <v>304822</v>
+        <v>169791</v>
       </c>
       <c r="AB58" s="19">
-        <v>141611</v>
+        <v>185979</v>
       </c>
       <c r="AC58" s="19">
-        <v>169791</v>
+        <v>160200</v>
       </c>
       <c r="AD58" s="19">
-        <v>185979</v>
+        <v>146163</v>
       </c>
       <c r="AE58" s="19">
-        <v>160200</v>
+        <v>75997</v>
       </c>
       <c r="AF58" s="19">
-        <v>146163</v>
+        <v>116055</v>
       </c>
       <c r="AG58" s="19">
-        <v>75997</v>
+        <v>390098</v>
       </c>
       <c r="AH58" s="19">
-        <v>116055</v>
+        <v>138995</v>
       </c>
       <c r="AI58" s="19">
-        <v>390098</v>
+        <v>214515</v>
       </c>
       <c r="AJ58" s="19">
-        <v>138995</v>
+        <v>376062</v>
       </c>
       <c r="AK58" s="19">
-        <v>214515</v>
+        <v>317866</v>
       </c>
       <c r="AL58" s="19">
-        <v>376062</v>
+        <v>436373</v>
       </c>
       <c r="AM58" s="19">
-        <v>317866</v>
+        <v>549587</v>
       </c>
       <c r="AN58" s="19">
-        <v>436373</v>
+        <v>371947</v>
       </c>
       <c r="AO58" s="19">
-        <v>549587</v>
+        <v>370990</v>
       </c>
       <c r="AP58" s="19">
-        <v>371947</v>
+        <v>434837</v>
       </c>
       <c r="AQ58" s="19">
-        <v>370990</v>
+        <v>161512</v>
       </c>
       <c r="AR58" s="19">
-        <v>434837</v>
+        <v>395072</v>
       </c>
       <c r="AS58" s="19">
-        <v>161512</v>
+        <v>588266</v>
       </c>
       <c r="AT58" s="19">
-        <v>395072</v>
+        <v>520752</v>
       </c>
       <c r="AU58" s="19">
-        <v>588266</v>
+        <v>477449</v>
       </c>
       <c r="AV58" s="19">
-        <v>520752</v>
+        <v>420304</v>
       </c>
       <c r="AW58" s="19">
-        <v>477449</v>
+        <v>441613</v>
       </c>
       <c r="AX58" s="19">
-        <v>420304</v>
+        <v>369426</v>
       </c>
       <c r="AY58" s="19">
-        <v>441613</v>
+        <v>315385</v>
       </c>
       <c r="AZ58" s="19">
-        <v>369426</v>
+        <v>284242</v>
       </c>
       <c r="BA58" s="19">
-        <v>315385</v>
+        <v>268089</v>
       </c>
       <c r="BB58" s="19">
-        <v>284242</v>
+        <v>450211</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7817,16 +7817,16 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>1040598</v>
+        <v>876730</v>
       </c>
       <c r="F65" s="11">
-        <v>870906</v>
+        <v>905072</v>
       </c>
       <c r="G65" s="11">
-        <v>876730</v>
+        <v>0</v>
       </c>
       <c r="H65" s="11">
-        <v>905072</v>
+        <v>0</v>
       </c>
       <c r="I65" s="11">
         <v>0</v>
@@ -7838,26 +7838,26 @@
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <v>0</v>
+        <v>1899924</v>
       </c>
       <c r="M65" s="11">
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <v>1899924</v>
+        <v>0</v>
       </c>
       <c r="O65" s="11">
         <v>0</v>
       </c>
       <c r="P65" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
-        <v>0</v>
-      </c>
-      <c r="R65" s="11">
         <v>1815937</v>
       </c>
+      <c r="Q65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="S65" s="11" t="s">
         <v>57</v>
       </c>
@@ -7891,80 +7891,80 @@
       <c r="AC65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="11" t="s">
-        <v>57</v>
+      <c r="AD65" s="11">
+        <v>4279821</v>
       </c>
       <c r="AE65" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AF65" s="11">
-        <v>4279821</v>
-      </c>
-      <c r="AG65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH65" s="11">
         <v>3936213</v>
       </c>
-      <c r="AI65" s="11">
+      <c r="AG65" s="11">
         <v>4321260</v>
       </c>
-      <c r="AJ65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK65" s="11" t="s">
-        <v>57</v>
+      <c r="AH65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ65" s="11">
+        <v>4433113</v>
+      </c>
+      <c r="AK65" s="11">
+        <v>7837143</v>
       </c>
       <c r="AL65" s="11">
-        <v>4433113</v>
+        <v>5499777</v>
       </c>
       <c r="AM65" s="11">
-        <v>7837143</v>
+        <v>6210537</v>
       </c>
       <c r="AN65" s="11">
-        <v>5499777</v>
+        <v>7456023</v>
       </c>
       <c r="AO65" s="11">
-        <v>6210537</v>
+        <v>6269070</v>
       </c>
       <c r="AP65" s="11">
-        <v>7456023</v>
+        <v>6452600</v>
       </c>
       <c r="AQ65" s="11">
-        <v>6269070</v>
+        <v>6420343</v>
       </c>
       <c r="AR65" s="11">
-        <v>6452600</v>
+        <v>5990860</v>
       </c>
       <c r="AS65" s="11">
-        <v>6420343</v>
+        <v>6356755</v>
       </c>
       <c r="AT65" s="11">
-        <v>5990860</v>
+        <v>6383497</v>
       </c>
       <c r="AU65" s="11">
-        <v>6356755</v>
+        <v>6500158</v>
       </c>
       <c r="AV65" s="11">
-        <v>6383497</v>
+        <v>6866900</v>
       </c>
       <c r="AW65" s="11">
-        <v>6500158</v>
+        <v>6984100</v>
       </c>
       <c r="AX65" s="11">
-        <v>6866900</v>
+        <v>6632150</v>
       </c>
       <c r="AY65" s="11">
-        <v>6984100</v>
-      </c>
-      <c r="AZ65" s="11">
-        <v>6632150</v>
-      </c>
-      <c r="BA65" s="11">
         <v>5906258</v>
       </c>
-      <c r="BB65" s="11" t="s">
-        <v>57</v>
+      <c r="AZ65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB65" s="11">
+        <v>6379372</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8011,11 +8011,11 @@
       <c r="P66" s="13">
         <v>0</v>
       </c>
-      <c r="Q66" s="13">
-        <v>0</v>
-      </c>
-      <c r="R66" s="13">
-        <v>0</v>
+      <c r="Q66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S66" s="13" t="s">
         <v>57</v>
@@ -8044,86 +8044,86 @@
       <c r="AA66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC66" s="13" t="s">
-        <v>57</v>
+      <c r="AB66" s="13">
+        <v>2639182</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>2703112</v>
       </c>
       <c r="AD66" s="13">
-        <v>2639182</v>
+        <v>2534772</v>
       </c>
       <c r="AE66" s="13">
-        <v>2703112</v>
+        <v>2501823</v>
       </c>
       <c r="AF66" s="13">
-        <v>2534772</v>
+        <v>2629885</v>
       </c>
       <c r="AG66" s="13">
-        <v>2501823</v>
+        <v>2618534</v>
       </c>
       <c r="AH66" s="13">
-        <v>2629885</v>
+        <v>2636277</v>
       </c>
       <c r="AI66" s="13">
-        <v>2618534</v>
+        <v>3702944</v>
       </c>
       <c r="AJ66" s="13">
-        <v>2636277</v>
+        <v>3683108</v>
       </c>
       <c r="AK66" s="13">
-        <v>3702944</v>
+        <v>3688514</v>
       </c>
       <c r="AL66" s="13">
-        <v>3683108</v>
+        <v>6178129</v>
       </c>
       <c r="AM66" s="13">
-        <v>3688514</v>
+        <v>5408597</v>
       </c>
       <c r="AN66" s="13">
-        <v>6178129</v>
+        <v>4424450</v>
       </c>
       <c r="AO66" s="13">
-        <v>5408597</v>
+        <v>4167577</v>
       </c>
       <c r="AP66" s="13">
-        <v>4424450</v>
+        <v>4054091</v>
       </c>
       <c r="AQ66" s="13">
-        <v>4167577</v>
+        <v>3843057</v>
       </c>
       <c r="AR66" s="13">
-        <v>4054091</v>
+        <v>4100191</v>
       </c>
       <c r="AS66" s="13">
-        <v>3843057</v>
+        <v>4895099</v>
       </c>
       <c r="AT66" s="13">
-        <v>4100191</v>
+        <v>5408692</v>
       </c>
       <c r="AU66" s="13">
-        <v>4895099</v>
+        <v>5106600</v>
       </c>
       <c r="AV66" s="13">
-        <v>5408692</v>
+        <v>5535852</v>
       </c>
       <c r="AW66" s="13">
-        <v>5106600</v>
+        <v>6210618</v>
       </c>
       <c r="AX66" s="13">
-        <v>5535852</v>
+        <v>6238454</v>
       </c>
       <c r="AY66" s="13">
-        <v>6210618</v>
+        <v>6130342</v>
       </c>
       <c r="AZ66" s="13">
-        <v>6238454</v>
+        <v>6032746</v>
       </c>
       <c r="BA66" s="13">
-        <v>6130342</v>
+        <v>5748172</v>
       </c>
       <c r="BB66" s="13">
-        <v>6032746</v>
+        <v>5753093</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8170,44 +8170,44 @@
       <c r="P67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>57</v>
+      <c r="Q67" s="11">
+        <v>1746959</v>
+      </c>
+      <c r="R67" s="11">
+        <v>1994363</v>
       </c>
       <c r="S67" s="11">
-        <v>1746959</v>
+        <v>1858710</v>
       </c>
       <c r="T67" s="11">
-        <v>1994363</v>
+        <v>2258396</v>
       </c>
       <c r="U67" s="11">
-        <v>1858710</v>
+        <v>2361811</v>
       </c>
       <c r="V67" s="11">
-        <v>2258396</v>
+        <v>2428296</v>
       </c>
       <c r="W67" s="11">
-        <v>2361811</v>
+        <v>2687019</v>
       </c>
       <c r="X67" s="11">
-        <v>2428296</v>
+        <v>2888521</v>
       </c>
       <c r="Y67" s="11">
-        <v>2687019</v>
+        <v>3528429</v>
       </c>
       <c r="Z67" s="11">
-        <v>2888521</v>
+        <v>3485492</v>
       </c>
       <c r="AA67" s="11">
-        <v>3528429</v>
-      </c>
-      <c r="AB67" s="11">
-        <v>3485492</v>
-      </c>
-      <c r="AC67" s="11">
         <v>3493568</v>
+      </c>
+      <c r="AB67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD67" s="11" t="s">
         <v>57</v>
@@ -8314,26 +8314,26 @@
       <c r="K68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>57</v>
+      <c r="L68" s="13">
+        <v>165299</v>
+      </c>
+      <c r="M68" s="13">
+        <v>717172</v>
       </c>
       <c r="N68" s="13">
-        <v>165299</v>
+        <v>1468186</v>
       </c>
       <c r="O68" s="13">
-        <v>717172</v>
+        <v>1840645</v>
       </c>
       <c r="P68" s="13">
-        <v>1468186</v>
-      </c>
-      <c r="Q68" s="13">
-        <v>1840645</v>
-      </c>
-      <c r="R68" s="13">
         <v>1840164</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S68" s="13" t="s">
         <v>57</v>
@@ -8453,154 +8453,154 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>1098402</v>
+        <v>1171897</v>
       </c>
       <c r="F69" s="11">
-        <v>1075422</v>
+        <v>1111968</v>
       </c>
       <c r="G69" s="11">
-        <v>1171897</v>
+        <v>1257716</v>
       </c>
       <c r="H69" s="11">
-        <v>1111968</v>
+        <v>1225753</v>
       </c>
       <c r="I69" s="11">
-        <v>1257716</v>
+        <v>1316335</v>
       </c>
       <c r="J69" s="11">
-        <v>1225753</v>
+        <v>1281088</v>
       </c>
       <c r="K69" s="11">
-        <v>1316335</v>
+        <v>1178017</v>
       </c>
       <c r="L69" s="11">
-        <v>1281088</v>
+        <v>1425109</v>
       </c>
       <c r="M69" s="11">
-        <v>1178017</v>
+        <v>1329539</v>
       </c>
       <c r="N69" s="11">
-        <v>1425109</v>
+        <v>1484247</v>
       </c>
       <c r="O69" s="11">
-        <v>1329539</v>
+        <v>1460842</v>
       </c>
       <c r="P69" s="11">
-        <v>1484247</v>
+        <v>1452660</v>
       </c>
       <c r="Q69" s="11">
-        <v>1460842</v>
+        <v>1473143</v>
       </c>
       <c r="R69" s="11">
-        <v>1452660</v>
+        <v>1454619</v>
       </c>
       <c r="S69" s="11">
-        <v>1473143</v>
+        <v>1576059</v>
       </c>
       <c r="T69" s="11">
-        <v>1454619</v>
+        <v>1592048</v>
       </c>
       <c r="U69" s="11">
-        <v>1576059</v>
+        <v>1631767</v>
       </c>
       <c r="V69" s="11">
-        <v>1592048</v>
+        <v>1588651</v>
       </c>
       <c r="W69" s="11">
-        <v>1631767</v>
+        <v>1621326</v>
       </c>
       <c r="X69" s="11">
-        <v>1588651</v>
+        <v>1715402</v>
       </c>
       <c r="Y69" s="11">
-        <v>1621326</v>
+        <v>1914955</v>
       </c>
       <c r="Z69" s="11">
-        <v>1715402</v>
+        <v>2526671</v>
       </c>
       <c r="AA69" s="11">
-        <v>1914955</v>
+        <v>2458655</v>
       </c>
       <c r="AB69" s="11">
-        <v>2526671</v>
+        <v>3184413</v>
       </c>
       <c r="AC69" s="11">
-        <v>2458655</v>
+        <v>3702279</v>
       </c>
       <c r="AD69" s="11">
-        <v>3184413</v>
+        <v>3167474</v>
       </c>
       <c r="AE69" s="11">
-        <v>3702279</v>
+        <v>3952078</v>
       </c>
       <c r="AF69" s="11">
-        <v>3167474</v>
+        <v>4012960</v>
       </c>
       <c r="AG69" s="11">
-        <v>3952078</v>
+        <v>3945615</v>
       </c>
       <c r="AH69" s="11">
-        <v>4012960</v>
+        <v>3512846</v>
       </c>
       <c r="AI69" s="11">
-        <v>3945615</v>
+        <v>3717307</v>
       </c>
       <c r="AJ69" s="11">
-        <v>3512846</v>
+        <v>5267514</v>
       </c>
       <c r="AK69" s="11">
-        <v>3717307</v>
+        <v>7544262</v>
       </c>
       <c r="AL69" s="11">
-        <v>5267514</v>
+        <v>5506572</v>
       </c>
       <c r="AM69" s="11">
-        <v>7544262</v>
+        <v>6604572</v>
       </c>
       <c r="AN69" s="11">
-        <v>5506572</v>
+        <v>5394678</v>
       </c>
       <c r="AO69" s="11">
-        <v>6604572</v>
+        <v>6091605</v>
       </c>
       <c r="AP69" s="11">
-        <v>5394678</v>
+        <v>5768351</v>
       </c>
       <c r="AQ69" s="11">
-        <v>6091605</v>
+        <v>5514584</v>
       </c>
       <c r="AR69" s="11">
-        <v>5768351</v>
+        <v>5703788</v>
       </c>
       <c r="AS69" s="11">
-        <v>5514584</v>
+        <v>5978056</v>
       </c>
       <c r="AT69" s="11">
-        <v>5703788</v>
+        <v>6031150</v>
       </c>
       <c r="AU69" s="11">
-        <v>5978056</v>
+        <v>6534802</v>
       </c>
       <c r="AV69" s="11">
-        <v>6031150</v>
+        <v>6479450</v>
       </c>
       <c r="AW69" s="11">
-        <v>6534802</v>
+        <v>6673378</v>
       </c>
       <c r="AX69" s="11">
-        <v>6479450</v>
+        <v>6632018</v>
       </c>
       <c r="AY69" s="11">
-        <v>6673378</v>
+        <v>6762896</v>
       </c>
       <c r="AZ69" s="11">
-        <v>6632018</v>
+        <v>6946243</v>
       </c>
       <c r="BA69" s="11">
-        <v>6762896</v>
+        <v>6988553</v>
       </c>
       <c r="BB69" s="11">
-        <v>6946243</v>
+        <v>7148867</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8612,46 +8612,46 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>1273212</v>
+        <v>1691136</v>
       </c>
       <c r="F70" s="13">
-        <v>1605658</v>
+        <v>1227027</v>
       </c>
       <c r="G70" s="13">
-        <v>1691136</v>
+        <v>994169</v>
       </c>
       <c r="H70" s="13">
-        <v>1227027</v>
+        <v>1462932</v>
       </c>
       <c r="I70" s="13">
-        <v>994169</v>
+        <v>1564728</v>
       </c>
       <c r="J70" s="13">
-        <v>1462932</v>
+        <v>1676312</v>
       </c>
       <c r="K70" s="13">
-        <v>1564728</v>
+        <v>1749049</v>
       </c>
       <c r="L70" s="13">
-        <v>1676312</v>
+        <v>0</v>
       </c>
       <c r="M70" s="13">
-        <v>1749049</v>
+        <v>1000000</v>
       </c>
       <c r="N70" s="13">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="O70" s="13">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="Q70" s="13">
-        <v>0</v>
-      </c>
-      <c r="R70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S70" s="13" t="s">
         <v>57</v>
@@ -8771,79 +8771,79 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>1244385</v>
+        <v>1224833</v>
       </c>
       <c r="F71" s="11">
-        <v>1255103</v>
+        <v>1228473</v>
       </c>
       <c r="G71" s="11">
-        <v>1224833</v>
+        <v>1186197</v>
       </c>
       <c r="H71" s="11">
-        <v>1228473</v>
+        <v>1186591</v>
       </c>
       <c r="I71" s="11">
-        <v>1186197</v>
+        <v>1195282</v>
       </c>
       <c r="J71" s="11">
-        <v>1186591</v>
+        <v>1193950</v>
       </c>
       <c r="K71" s="11">
-        <v>1195282</v>
+        <v>1231606</v>
       </c>
       <c r="L71" s="11">
-        <v>1193950</v>
+        <v>1246741</v>
       </c>
       <c r="M71" s="11">
-        <v>1231606</v>
+        <v>1678481</v>
       </c>
       <c r="N71" s="11">
-        <v>1246741</v>
+        <v>1789772</v>
       </c>
       <c r="O71" s="11">
-        <v>1678481</v>
+        <v>1763660</v>
       </c>
       <c r="P71" s="11">
-        <v>1789772</v>
+        <v>1780589</v>
       </c>
       <c r="Q71" s="11">
-        <v>1763660</v>
+        <v>1781899</v>
       </c>
       <c r="R71" s="11">
-        <v>1780589</v>
+        <v>1655208</v>
       </c>
       <c r="S71" s="11">
-        <v>1781899</v>
+        <v>1604306</v>
       </c>
       <c r="T71" s="11">
-        <v>1655208</v>
+        <v>1614272</v>
       </c>
       <c r="U71" s="11">
-        <v>1604306</v>
+        <v>1713596</v>
       </c>
       <c r="V71" s="11">
-        <v>1614272</v>
+        <v>1859698</v>
       </c>
       <c r="W71" s="11">
-        <v>1713596</v>
+        <v>1831105</v>
       </c>
       <c r="X71" s="11">
-        <v>1859698</v>
+        <v>1855842</v>
       </c>
       <c r="Y71" s="11">
-        <v>1831105</v>
+        <v>2261639</v>
       </c>
       <c r="Z71" s="11">
-        <v>1855842</v>
+        <v>2423852</v>
       </c>
       <c r="AA71" s="11">
-        <v>2261639</v>
-      </c>
-      <c r="AB71" s="11">
-        <v>2423852</v>
-      </c>
-      <c r="AC71" s="11">
         <v>2483912</v>
+      </c>
+      <c r="AB71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD71" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/sekord/product/monthly.xlsx
+++ b/database/industries/siman/sekord/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekord\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980646C-C327-4C46-8ADA-54B4C29C1EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F35D9-EA89-4F4B-A1AC-C1EE00EE240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سکرد-سیمان کردستان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 3 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 4 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -739,12 +739,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -799,7 +799,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -968,7 +968,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -1430,26 +1430,26 @@
         <v>0</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>5143</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>3785</v>
       </c>
       <c r="L11" s="11">
-        <v>5143</v>
+        <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>3785</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
         <v>6237</v>
       </c>
+      <c r="O11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Q11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1477,95 +1477,95 @@
       <c r="Y11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>57</v>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
       </c>
       <c r="AB11" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AC11" s="11">
         <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AE11" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AF11" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AI11" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AJ11" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AK11" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AL11" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AM11" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AN11" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AO11" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AP11" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AQ11" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AR11" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AS11" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AT11" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AU11" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AV11" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AW11" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AX11" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
       <c r="BA11" s="11">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="BB11" s="11">
-        <v>36969</v>
+        <v>15581</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1574,41 +1574,41 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>56230</v>
+        <v>25536</v>
       </c>
       <c r="F12" s="13">
-        <v>33550</v>
+        <v>38374</v>
       </c>
       <c r="G12" s="13">
-        <v>25536</v>
+        <v>60036</v>
       </c>
       <c r="H12" s="13">
-        <v>38374</v>
+        <v>52367</v>
       </c>
       <c r="I12" s="13">
-        <v>60036</v>
+        <v>81996</v>
       </c>
       <c r="J12" s="13">
-        <v>52367</v>
+        <v>84124</v>
       </c>
       <c r="K12" s="13">
-        <v>81996</v>
+        <v>82257</v>
       </c>
       <c r="L12" s="13">
-        <v>84124</v>
+        <v>69435</v>
       </c>
       <c r="M12" s="13">
-        <v>82257</v>
+        <v>85686</v>
       </c>
       <c r="N12" s="13">
-        <v>69435</v>
-      </c>
-      <c r="O12" s="13">
-        <v>85686</v>
-      </c>
-      <c r="P12" s="13">
         <v>88873</v>
       </c>
+      <c r="O12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Q12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1636,95 +1636,95 @@
       <c r="Y12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>57</v>
+      <c r="Z12" s="13">
+        <v>60386</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>56057</v>
       </c>
       <c r="AB12" s="13">
-        <v>60386</v>
+        <v>20406</v>
       </c>
       <c r="AC12" s="13">
-        <v>56057</v>
+        <v>21824</v>
       </c>
       <c r="AD12" s="13">
-        <v>20406</v>
+        <v>26772</v>
       </c>
       <c r="AE12" s="13">
-        <v>21824</v>
+        <v>46784</v>
       </c>
       <c r="AF12" s="13">
-        <v>26772</v>
+        <v>49152</v>
       </c>
       <c r="AG12" s="13">
-        <v>46784</v>
+        <v>44281</v>
       </c>
       <c r="AH12" s="13">
-        <v>49152</v>
+        <v>38245</v>
       </c>
       <c r="AI12" s="13">
-        <v>44281</v>
+        <v>31251</v>
       </c>
       <c r="AJ12" s="13">
-        <v>38245</v>
+        <v>33343</v>
       </c>
       <c r="AK12" s="13">
-        <v>31251</v>
+        <v>45089</v>
       </c>
       <c r="AL12" s="13">
-        <v>33343</v>
+        <v>40727</v>
       </c>
       <c r="AM12" s="13">
-        <v>45089</v>
+        <v>37223</v>
       </c>
       <c r="AN12" s="13">
-        <v>40727</v>
+        <v>23082</v>
       </c>
       <c r="AO12" s="13">
-        <v>37223</v>
+        <v>7600</v>
       </c>
       <c r="AP12" s="13">
-        <v>23082</v>
+        <v>9858</v>
       </c>
       <c r="AQ12" s="13">
-        <v>7600</v>
+        <v>26695</v>
       </c>
       <c r="AR12" s="13">
-        <v>9858</v>
+        <v>41657</v>
       </c>
       <c r="AS12" s="13">
-        <v>26695</v>
+        <v>40650</v>
       </c>
       <c r="AT12" s="13">
-        <v>41657</v>
+        <v>54789</v>
       </c>
       <c r="AU12" s="13">
-        <v>40650</v>
+        <v>48155</v>
       </c>
       <c r="AV12" s="13">
-        <v>54789</v>
+        <v>31005</v>
       </c>
       <c r="AW12" s="13">
-        <v>48155</v>
+        <v>32562</v>
       </c>
       <c r="AX12" s="13">
-        <v>31005</v>
+        <v>47036</v>
       </c>
       <c r="AY12" s="13">
-        <v>32562</v>
+        <v>40757</v>
       </c>
       <c r="AZ12" s="13">
-        <v>47036</v>
+        <v>33880</v>
       </c>
       <c r="BA12" s="13">
-        <v>40757</v>
+        <v>10329</v>
       </c>
       <c r="BB12" s="13">
-        <v>33880</v>
+        <v>14276</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1762,45 +1762,45 @@
       <c r="N13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>57</v>
+      <c r="O13" s="11">
+        <v>411</v>
+      </c>
+      <c r="P13" s="11">
+        <v>37783</v>
       </c>
       <c r="Q13" s="11">
-        <v>411</v>
+        <v>20688</v>
       </c>
       <c r="R13" s="11">
-        <v>37783</v>
+        <v>77149</v>
       </c>
       <c r="S13" s="11">
-        <v>20688</v>
+        <v>36251</v>
       </c>
       <c r="T13" s="11">
-        <v>77149</v>
+        <v>5195</v>
       </c>
       <c r="U13" s="11">
-        <v>36251</v>
+        <v>17918</v>
       </c>
       <c r="V13" s="11">
-        <v>5195</v>
+        <v>9966</v>
       </c>
       <c r="W13" s="11">
-        <v>17918</v>
+        <v>44074</v>
       </c>
       <c r="X13" s="11">
-        <v>9966</v>
+        <v>48099</v>
       </c>
       <c r="Y13" s="11">
-        <v>44074</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>48099</v>
-      </c>
-      <c r="AA13" s="11">
         <v>1477</v>
       </c>
+      <c r="Z13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1906,27 +1906,27 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>4876</v>
+      </c>
+      <c r="K14" s="13">
+        <v>198</v>
       </c>
       <c r="L14" s="13">
-        <v>4876</v>
+        <v>2850</v>
       </c>
       <c r="M14" s="13">
-        <v>198</v>
+        <v>734</v>
       </c>
       <c r="N14" s="13">
-        <v>2850</v>
-      </c>
-      <c r="O14" s="13">
-        <v>734</v>
-      </c>
-      <c r="P14" s="13">
         <v>872</v>
       </c>
+      <c r="O14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Q14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2051,157 +2051,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="F15" s="11">
-        <v>12384</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>6800</v>
+        <v>1587</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>6098</v>
       </c>
       <c r="I15" s="11">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>6098</v>
+        <v>10224</v>
       </c>
       <c r="K15" s="11">
-        <v>0</v>
+        <v>4321</v>
       </c>
       <c r="L15" s="11">
-        <v>10224</v>
+        <v>6733</v>
       </c>
       <c r="M15" s="11">
-        <v>4321</v>
+        <v>5140</v>
       </c>
       <c r="N15" s="11">
-        <v>6733</v>
+        <v>5769</v>
       </c>
       <c r="O15" s="11">
-        <v>5140</v>
+        <v>5776</v>
       </c>
       <c r="P15" s="11">
-        <v>5769</v>
+        <v>5627</v>
       </c>
       <c r="Q15" s="11">
-        <v>5776</v>
+        <v>5234</v>
       </c>
       <c r="R15" s="11">
-        <v>5627</v>
+        <v>6191</v>
       </c>
       <c r="S15" s="11">
-        <v>5234</v>
+        <v>5973</v>
       </c>
       <c r="T15" s="11">
-        <v>6191</v>
+        <v>6123</v>
       </c>
       <c r="U15" s="11">
-        <v>5973</v>
+        <v>5843</v>
       </c>
       <c r="V15" s="11">
-        <v>6123</v>
+        <v>5802</v>
       </c>
       <c r="W15" s="11">
-        <v>5843</v>
+        <v>6613</v>
       </c>
       <c r="X15" s="11">
-        <v>5802</v>
+        <v>5712</v>
       </c>
       <c r="Y15" s="11">
-        <v>6613</v>
+        <v>7349</v>
       </c>
       <c r="Z15" s="11">
-        <v>5712</v>
+        <v>7097</v>
       </c>
       <c r="AA15" s="11">
-        <v>7349</v>
+        <v>5183</v>
       </c>
       <c r="AB15" s="11">
-        <v>7097</v>
+        <v>5270</v>
       </c>
       <c r="AC15" s="11">
-        <v>5183</v>
+        <v>5404</v>
       </c>
       <c r="AD15" s="11">
-        <v>5270</v>
+        <v>4384</v>
       </c>
       <c r="AE15" s="11">
-        <v>5404</v>
+        <v>6454</v>
       </c>
       <c r="AF15" s="11">
-        <v>4384</v>
+        <v>5326</v>
       </c>
       <c r="AG15" s="11">
-        <v>6454</v>
+        <v>7092</v>
       </c>
       <c r="AH15" s="11">
-        <v>5326</v>
+        <v>6219</v>
       </c>
       <c r="AI15" s="11">
-        <v>7092</v>
+        <v>2946</v>
       </c>
       <c r="AJ15" s="11">
-        <v>6219</v>
+        <v>4475</v>
       </c>
       <c r="AK15" s="11">
-        <v>2946</v>
+        <v>5836</v>
       </c>
       <c r="AL15" s="11">
-        <v>4475</v>
+        <v>5851</v>
       </c>
       <c r="AM15" s="11">
-        <v>5836</v>
+        <v>6267</v>
       </c>
       <c r="AN15" s="11">
-        <v>5851</v>
+        <v>5958</v>
       </c>
       <c r="AO15" s="11">
-        <v>6267</v>
+        <v>1773</v>
       </c>
       <c r="AP15" s="11">
-        <v>5958</v>
+        <v>2232</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1773</v>
+        <v>5322</v>
       </c>
       <c r="AR15" s="11">
-        <v>2232</v>
+        <v>4766</v>
       </c>
       <c r="AS15" s="11">
-        <v>5322</v>
+        <v>6194</v>
       </c>
       <c r="AT15" s="11">
-        <v>4766</v>
+        <v>7759</v>
       </c>
       <c r="AU15" s="11">
-        <v>6194</v>
+        <v>5190</v>
       </c>
       <c r="AV15" s="11">
-        <v>7759</v>
+        <v>6676</v>
       </c>
       <c r="AW15" s="11">
-        <v>5190</v>
+        <v>7014</v>
       </c>
       <c r="AX15" s="11">
-        <v>6676</v>
+        <v>6008</v>
       </c>
       <c r="AY15" s="11">
-        <v>7014</v>
+        <v>5675</v>
       </c>
       <c r="AZ15" s="11">
-        <v>6008</v>
+        <v>4715</v>
       </c>
       <c r="BA15" s="11">
-        <v>5675</v>
+        <v>4639</v>
       </c>
       <c r="BB15" s="11">
-        <v>4715</v>
+        <v>3805</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2239,11 +2239,11 @@
       <c r="N16" s="13">
         <v>0</v>
       </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
+      <c r="O16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>57</v>
@@ -2360,7 +2360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2399,44 +2399,44 @@
         <v>0</v>
       </c>
       <c r="O17" s="11">
-        <v>0</v>
+        <v>75613</v>
       </c>
       <c r="P17" s="11">
-        <v>0</v>
+        <v>37667</v>
       </c>
       <c r="Q17" s="11">
-        <v>75613</v>
+        <v>39479</v>
       </c>
       <c r="R17" s="11">
-        <v>37667</v>
+        <v>26330</v>
       </c>
       <c r="S17" s="11">
-        <v>39479</v>
+        <v>45692</v>
       </c>
       <c r="T17" s="11">
-        <v>26330</v>
+        <v>59986</v>
       </c>
       <c r="U17" s="11">
-        <v>45692</v>
+        <v>88456</v>
       </c>
       <c r="V17" s="11">
-        <v>59986</v>
+        <v>85503</v>
       </c>
       <c r="W17" s="11">
-        <v>88456</v>
+        <v>59011</v>
       </c>
       <c r="X17" s="11">
-        <v>85503</v>
+        <v>44433</v>
       </c>
       <c r="Y17" s="11">
-        <v>59011</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>44433</v>
-      </c>
-      <c r="AA17" s="11">
         <v>58560</v>
       </c>
+      <c r="Z17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="BA18" s="15"/>
       <c r="BB18" s="15"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2645,11 +2645,11 @@
       <c r="Y19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA19" s="17" t="s">
-        <v>57</v>
+      <c r="Z19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>0</v>
       </c>
       <c r="AB19" s="17">
         <v>0</v>
@@ -2733,164 +2733,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19">
-        <v>56230</v>
+        <v>32336</v>
       </c>
       <c r="F20" s="19">
-        <v>49699</v>
+        <v>38374</v>
       </c>
       <c r="G20" s="19">
-        <v>32336</v>
+        <v>61623</v>
       </c>
       <c r="H20" s="19">
-        <v>38374</v>
+        <v>58465</v>
       </c>
       <c r="I20" s="19">
-        <v>61623</v>
+        <v>81996</v>
       </c>
       <c r="J20" s="19">
-        <v>58465</v>
+        <v>104367</v>
       </c>
       <c r="K20" s="19">
-        <v>81996</v>
+        <v>90561</v>
       </c>
       <c r="L20" s="19">
-        <v>104367</v>
+        <v>79018</v>
       </c>
       <c r="M20" s="19">
-        <v>90561</v>
+        <v>91560</v>
       </c>
       <c r="N20" s="19">
-        <v>79018</v>
+        <v>101751</v>
       </c>
       <c r="O20" s="19">
-        <v>91560</v>
+        <v>81800</v>
       </c>
       <c r="P20" s="19">
-        <v>101751</v>
+        <v>81077</v>
       </c>
       <c r="Q20" s="19">
-        <v>81800</v>
+        <v>65401</v>
       </c>
       <c r="R20" s="19">
-        <v>81077</v>
+        <v>109670</v>
       </c>
       <c r="S20" s="19">
-        <v>65401</v>
+        <v>87916</v>
       </c>
       <c r="T20" s="19">
-        <v>109670</v>
+        <v>71304</v>
       </c>
       <c r="U20" s="19">
-        <v>87916</v>
+        <v>112217</v>
       </c>
       <c r="V20" s="19">
-        <v>71304</v>
+        <v>101271</v>
       </c>
       <c r="W20" s="19">
-        <v>112217</v>
+        <v>109698</v>
       </c>
       <c r="X20" s="19">
-        <v>101271</v>
+        <v>98244</v>
       </c>
       <c r="Y20" s="19">
-        <v>109698</v>
+        <v>67386</v>
       </c>
       <c r="Z20" s="19">
-        <v>98244</v>
+        <v>67483</v>
       </c>
       <c r="AA20" s="19">
-        <v>67386</v>
+        <v>61240</v>
       </c>
       <c r="AB20" s="19">
-        <v>67483</v>
+        <v>39785</v>
       </c>
       <c r="AC20" s="19">
-        <v>61240</v>
+        <v>27228</v>
       </c>
       <c r="AD20" s="19">
-        <v>39785</v>
+        <v>42036</v>
       </c>
       <c r="AE20" s="19">
-        <v>27228</v>
+        <v>109255</v>
       </c>
       <c r="AF20" s="19">
-        <v>42036</v>
+        <v>54478</v>
       </c>
       <c r="AG20" s="19">
-        <v>109255</v>
+        <v>51373</v>
       </c>
       <c r="AH20" s="19">
-        <v>54478</v>
+        <v>88718</v>
       </c>
       <c r="AI20" s="19">
-        <v>51373</v>
+        <v>59219</v>
       </c>
       <c r="AJ20" s="19">
-        <v>88718</v>
+        <v>71389</v>
       </c>
       <c r="AK20" s="19">
-        <v>59219</v>
+        <v>90272</v>
       </c>
       <c r="AL20" s="19">
-        <v>71389</v>
+        <v>67373</v>
       </c>
       <c r="AM20" s="19">
-        <v>90272</v>
+        <v>75255</v>
       </c>
       <c r="AN20" s="19">
-        <v>67373</v>
+        <v>75443</v>
       </c>
       <c r="AO20" s="19">
-        <v>75255</v>
+        <v>24494</v>
       </c>
       <c r="AP20" s="19">
-        <v>75443</v>
+        <v>67120</v>
       </c>
       <c r="AQ20" s="19">
-        <v>24494</v>
+        <v>98494</v>
       </c>
       <c r="AR20" s="19">
-        <v>67120</v>
+        <v>96559</v>
       </c>
       <c r="AS20" s="19">
-        <v>98494</v>
+        <v>75349</v>
       </c>
       <c r="AT20" s="19">
-        <v>96559</v>
+        <v>72548</v>
       </c>
       <c r="AU20" s="19">
-        <v>75349</v>
+        <v>73345</v>
       </c>
       <c r="AV20" s="19">
-        <v>72548</v>
+        <v>57681</v>
       </c>
       <c r="AW20" s="19">
-        <v>73345</v>
+        <v>43395</v>
       </c>
       <c r="AX20" s="19">
-        <v>57681</v>
+        <v>53044</v>
       </c>
       <c r="AY20" s="19">
-        <v>43395</v>
+        <v>46432</v>
       </c>
       <c r="AZ20" s="19">
-        <v>53044</v>
+        <v>75564</v>
       </c>
       <c r="BA20" s="19">
-        <v>46432</v>
+        <v>25048</v>
       </c>
       <c r="BB20" s="19">
-        <v>75564</v>
+        <v>33662</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2945,7 +2945,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3000,7 +3000,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3055,7 +3055,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>67</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3267,7 +3267,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
@@ -3333,10 +3333,10 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="G27" s="11">
         <v>0</v>
@@ -3348,26 +3348,26 @@
         <v>0</v>
       </c>
       <c r="J27" s="11">
-        <v>0</v>
+        <v>11871</v>
       </c>
       <c r="K27" s="11">
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <v>11871</v>
+        <v>0</v>
       </c>
       <c r="M27" s="11">
         <v>0</v>
       </c>
       <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
         <v>6237</v>
       </c>
+      <c r="O27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Q27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3395,95 +3395,95 @@
       <c r="Y27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>57</v>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
       </c>
       <c r="AB27" s="11">
-        <v>0</v>
+        <v>14109</v>
       </c>
       <c r="AC27" s="11">
         <v>0</v>
       </c>
       <c r="AD27" s="11">
-        <v>14109</v>
+        <v>10880</v>
       </c>
       <c r="AE27" s="11">
-        <v>0</v>
+        <v>56017</v>
       </c>
       <c r="AF27" s="11">
-        <v>10880</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="11">
-        <v>56017</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="11">
-        <v>0</v>
+        <v>44254</v>
       </c>
       <c r="AI27" s="11">
-        <v>0</v>
+        <v>25022</v>
       </c>
       <c r="AJ27" s="11">
-        <v>44254</v>
+        <v>33571</v>
       </c>
       <c r="AK27" s="11">
-        <v>25022</v>
+        <v>39347</v>
       </c>
       <c r="AL27" s="11">
-        <v>33571</v>
+        <v>20795</v>
       </c>
       <c r="AM27" s="11">
-        <v>39347</v>
+        <v>31765</v>
       </c>
       <c r="AN27" s="11">
-        <v>20795</v>
+        <v>46403</v>
       </c>
       <c r="AO27" s="11">
-        <v>31765</v>
+        <v>15121</v>
       </c>
       <c r="AP27" s="11">
-        <v>46403</v>
+        <v>55030</v>
       </c>
       <c r="AQ27" s="11">
-        <v>15121</v>
+        <v>66477</v>
       </c>
       <c r="AR27" s="11">
-        <v>55030</v>
+        <v>50136</v>
       </c>
       <c r="AS27" s="11">
-        <v>66477</v>
+        <v>28505</v>
       </c>
       <c r="AT27" s="11">
-        <v>50136</v>
+        <v>10000</v>
       </c>
       <c r="AU27" s="11">
-        <v>28505</v>
+        <v>20000</v>
       </c>
       <c r="AV27" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AW27" s="11">
-        <v>20000</v>
+        <v>3819</v>
       </c>
       <c r="AX27" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="11">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="11">
-        <v>0</v>
+        <v>36969</v>
       </c>
       <c r="BA27" s="11">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="BB27" s="11">
-        <v>36969</v>
+        <v>15581</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>58</v>
       </c>
@@ -3521,11 +3521,11 @@
       <c r="N28" s="13">
         <v>0</v>
       </c>
-      <c r="O28" s="13">
-        <v>0</v>
-      </c>
-      <c r="P28" s="13">
-        <v>0</v>
+      <c r="O28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q28" s="13" t="s">
         <v>57</v>
@@ -3554,95 +3554,95 @@
       <c r="Y28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>57</v>
+      <c r="Z28" s="13">
+        <v>62774</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>51932</v>
       </c>
       <c r="AB28" s="13">
-        <v>62774</v>
+        <v>25581</v>
       </c>
       <c r="AC28" s="13">
-        <v>51932</v>
+        <v>21938</v>
       </c>
       <c r="AD28" s="13">
-        <v>25581</v>
+        <v>21134</v>
       </c>
       <c r="AE28" s="13">
-        <v>21938</v>
+        <v>47307</v>
       </c>
       <c r="AF28" s="13">
-        <v>21134</v>
+        <v>47330</v>
       </c>
       <c r="AG28" s="13">
-        <v>47307</v>
+        <v>49149</v>
       </c>
       <c r="AH28" s="13">
-        <v>47330</v>
+        <v>40285</v>
       </c>
       <c r="AI28" s="13">
-        <v>49149</v>
+        <v>25526</v>
       </c>
       <c r="AJ28" s="13">
-        <v>40285</v>
+        <v>36204</v>
       </c>
       <c r="AK28" s="13">
-        <v>25526</v>
+        <v>48527</v>
       </c>
       <c r="AL28" s="13">
-        <v>36204</v>
+        <v>40867</v>
       </c>
       <c r="AM28" s="13">
-        <v>48527</v>
+        <v>31311</v>
       </c>
       <c r="AN28" s="13">
-        <v>40867</v>
+        <v>24699</v>
       </c>
       <c r="AO28" s="13">
-        <v>31311</v>
+        <v>14158</v>
       </c>
       <c r="AP28" s="13">
-        <v>24699</v>
+        <v>14113</v>
       </c>
       <c r="AQ28" s="13">
-        <v>14158</v>
+        <v>27893</v>
       </c>
       <c r="AR28" s="13">
-        <v>14113</v>
+        <v>31202</v>
       </c>
       <c r="AS28" s="13">
-        <v>27893</v>
+        <v>48443</v>
       </c>
       <c r="AT28" s="13">
-        <v>31202</v>
+        <v>54321</v>
       </c>
       <c r="AU28" s="13">
-        <v>48443</v>
+        <v>41891</v>
       </c>
       <c r="AV28" s="13">
-        <v>54321</v>
+        <v>31461</v>
       </c>
       <c r="AW28" s="13">
-        <v>41891</v>
+        <v>38913</v>
       </c>
       <c r="AX28" s="13">
-        <v>31461</v>
+        <v>39577</v>
       </c>
       <c r="AY28" s="13">
-        <v>38913</v>
+        <v>39523</v>
       </c>
       <c r="AZ28" s="13">
-        <v>39577</v>
+        <v>30793</v>
       </c>
       <c r="BA28" s="13">
-        <v>39523</v>
+        <v>12406</v>
       </c>
       <c r="BB28" s="13">
-        <v>30793</v>
+        <v>14632</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -3680,45 +3680,45 @@
       <c r="N29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>57</v>
+      <c r="O29" s="11">
+        <v>411</v>
+      </c>
+      <c r="P29" s="11">
+        <v>37783</v>
       </c>
       <c r="Q29" s="11">
-        <v>411</v>
+        <v>20688</v>
       </c>
       <c r="R29" s="11">
-        <v>37783</v>
+        <v>77149</v>
       </c>
       <c r="S29" s="11">
-        <v>20688</v>
+        <v>36251</v>
       </c>
       <c r="T29" s="11">
-        <v>77149</v>
+        <v>5195</v>
       </c>
       <c r="U29" s="11">
-        <v>36251</v>
+        <v>17918</v>
       </c>
       <c r="V29" s="11">
-        <v>5195</v>
+        <v>9966</v>
       </c>
       <c r="W29" s="11">
-        <v>17918</v>
+        <v>44074</v>
       </c>
       <c r="X29" s="11">
-        <v>9966</v>
+        <v>5273</v>
       </c>
       <c r="Y29" s="11">
-        <v>44074</v>
-      </c>
-      <c r="Z29" s="11">
-        <v>5273</v>
-      </c>
-      <c r="AA29" s="11">
         <v>1477</v>
       </c>
+      <c r="Z29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB29" s="11" t="s">
         <v>57</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
@@ -3824,27 +3824,27 @@
       <c r="I30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>57</v>
+      <c r="J30" s="13">
+        <v>4876</v>
+      </c>
+      <c r="K30" s="13">
+        <v>198</v>
       </c>
       <c r="L30" s="13">
-        <v>4876</v>
+        <v>2106</v>
       </c>
       <c r="M30" s="13">
-        <v>198</v>
+        <v>1117</v>
       </c>
       <c r="N30" s="13">
-        <v>2106</v>
-      </c>
-      <c r="O30" s="13">
-        <v>1117</v>
-      </c>
-      <c r="P30" s="13">
         <v>244</v>
       </c>
+      <c r="O30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Q30" s="13" t="s">
         <v>57</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -3969,157 +3969,157 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>5003</v>
+        <v>5735</v>
       </c>
       <c r="F31" s="11">
-        <v>5314</v>
+        <v>2423</v>
       </c>
       <c r="G31" s="11">
+        <v>1255</v>
+      </c>
+      <c r="H31" s="11">
+        <v>5002</v>
+      </c>
+      <c r="I31" s="11">
+        <v>7606</v>
+      </c>
+      <c r="J31" s="11">
         <v>5735</v>
       </c>
-      <c r="H31" s="11">
-        <v>2423</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1255</v>
-      </c>
-      <c r="J31" s="11">
-        <v>5002</v>
-      </c>
       <c r="K31" s="11">
-        <v>7606</v>
+        <v>5095</v>
       </c>
       <c r="L31" s="11">
-        <v>5735</v>
+        <v>7205</v>
       </c>
       <c r="M31" s="11">
-        <v>5095</v>
+        <v>4967</v>
       </c>
       <c r="N31" s="11">
-        <v>7205</v>
+        <v>5207</v>
       </c>
       <c r="O31" s="11">
-        <v>4967</v>
+        <v>5548</v>
       </c>
       <c r="P31" s="11">
-        <v>5207</v>
+        <v>6170</v>
       </c>
       <c r="Q31" s="11">
-        <v>5548</v>
+        <v>5029</v>
       </c>
       <c r="R31" s="11">
-        <v>6170</v>
+        <v>5030</v>
       </c>
       <c r="S31" s="11">
-        <v>5029</v>
+        <v>5893</v>
       </c>
       <c r="T31" s="11">
-        <v>5030</v>
+        <v>4529</v>
       </c>
       <c r="U31" s="11">
-        <v>5893</v>
+        <v>5036</v>
       </c>
       <c r="V31" s="11">
-        <v>4529</v>
+        <v>5889</v>
       </c>
       <c r="W31" s="11">
-        <v>5036</v>
+        <v>6279</v>
       </c>
       <c r="X31" s="11">
-        <v>5889</v>
+        <v>6374</v>
       </c>
       <c r="Y31" s="11">
-        <v>6279</v>
+        <v>6990</v>
       </c>
       <c r="Z31" s="11">
-        <v>6374</v>
+        <v>6377</v>
       </c>
       <c r="AA31" s="11">
-        <v>6990</v>
+        <v>5354</v>
       </c>
       <c r="AB31" s="11">
-        <v>6377</v>
+        <v>6610</v>
       </c>
       <c r="AC31" s="11">
-        <v>5354</v>
+        <v>5342</v>
       </c>
       <c r="AD31" s="11">
-        <v>6610</v>
+        <v>4398</v>
       </c>
       <c r="AE31" s="11">
-        <v>5342</v>
+        <v>6123</v>
       </c>
       <c r="AF31" s="11">
-        <v>4398</v>
+        <v>4048</v>
       </c>
       <c r="AG31" s="11">
-        <v>6123</v>
+        <v>8748</v>
       </c>
       <c r="AH31" s="11">
-        <v>4048</v>
+        <v>5981</v>
       </c>
       <c r="AI31" s="11">
-        <v>8748</v>
+        <v>3660</v>
       </c>
       <c r="AJ31" s="11">
-        <v>5981</v>
+        <v>5097</v>
       </c>
       <c r="AK31" s="11">
-        <v>3660</v>
+        <v>6474</v>
       </c>
       <c r="AL31" s="11">
-        <v>5097</v>
+        <v>6689</v>
       </c>
       <c r="AM31" s="11">
-        <v>6474</v>
+        <v>6790</v>
       </c>
       <c r="AN31" s="11">
-        <v>6689</v>
+        <v>6117</v>
       </c>
       <c r="AO31" s="11">
-        <v>6790</v>
+        <v>1817</v>
       </c>
       <c r="AP31" s="11">
-        <v>6117</v>
+        <v>1320</v>
       </c>
       <c r="AQ31" s="11">
-        <v>1817</v>
+        <v>4876</v>
       </c>
       <c r="AR31" s="11">
-        <v>1320</v>
+        <v>5297</v>
       </c>
       <c r="AS31" s="11">
-        <v>4876</v>
+        <v>6853</v>
       </c>
       <c r="AT31" s="11">
-        <v>5297</v>
+        <v>7859</v>
       </c>
       <c r="AU31" s="11">
-        <v>6853</v>
+        <v>6258</v>
       </c>
       <c r="AV31" s="11">
-        <v>7859</v>
+        <v>6109</v>
       </c>
       <c r="AW31" s="11">
-        <v>6258</v>
+        <v>8026</v>
       </c>
       <c r="AX31" s="11">
-        <v>6109</v>
+        <v>6548</v>
       </c>
       <c r="AY31" s="11">
-        <v>8026</v>
+        <v>5853</v>
       </c>
       <c r="AZ31" s="11">
-        <v>6548</v>
+        <v>5206</v>
       </c>
       <c r="BA31" s="11">
-        <v>5853</v>
+        <v>4457</v>
       </c>
       <c r="BB31" s="11">
-        <v>5206</v>
+        <v>4707</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
@@ -4128,40 +4128,40 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>7288</v>
+        <v>1029</v>
       </c>
       <c r="F32" s="13">
-        <v>370</v>
+        <v>1214</v>
       </c>
       <c r="G32" s="13">
-        <v>1029</v>
+        <v>2665</v>
       </c>
       <c r="H32" s="13">
-        <v>1214</v>
+        <v>3145</v>
       </c>
       <c r="I32" s="13">
-        <v>2665</v>
+        <v>1315</v>
       </c>
       <c r="J32" s="13">
-        <v>3145</v>
+        <v>0</v>
       </c>
       <c r="K32" s="13">
-        <v>1315</v>
+        <v>580</v>
       </c>
       <c r="L32" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M32" s="13">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N32" s="13">
-        <v>24</v>
-      </c>
-      <c r="O32" s="13">
-        <v>0</v>
-      </c>
-      <c r="P32" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q32" s="13" t="s">
         <v>57</v>
@@ -4278,7 +4278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>63</v>
       </c>
@@ -4287,74 +4287,74 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>47791</v>
+        <v>25038</v>
       </c>
       <c r="F33" s="11">
-        <v>33295</v>
+        <v>36497</v>
       </c>
       <c r="G33" s="11">
-        <v>25038</v>
+        <v>60538</v>
       </c>
       <c r="H33" s="11">
-        <v>36497</v>
+        <v>48925</v>
       </c>
       <c r="I33" s="11">
-        <v>60538</v>
+        <v>85559</v>
       </c>
       <c r="J33" s="11">
-        <v>48925</v>
+        <v>87132</v>
       </c>
       <c r="K33" s="11">
-        <v>85559</v>
+        <v>75700</v>
       </c>
       <c r="L33" s="11">
-        <v>87132</v>
+        <v>68540</v>
       </c>
       <c r="M33" s="11">
-        <v>75700</v>
+        <v>86655</v>
       </c>
       <c r="N33" s="11">
-        <v>68540</v>
+        <v>90287</v>
       </c>
       <c r="O33" s="11">
-        <v>86655</v>
+        <v>71045</v>
       </c>
       <c r="P33" s="11">
-        <v>90287</v>
+        <v>42762</v>
       </c>
       <c r="Q33" s="11">
-        <v>71045</v>
+        <v>34509</v>
       </c>
       <c r="R33" s="11">
-        <v>42762</v>
+        <v>27789</v>
       </c>
       <c r="S33" s="11">
-        <v>34509</v>
+        <v>43072</v>
       </c>
       <c r="T33" s="11">
-        <v>27789</v>
+        <v>62893</v>
       </c>
       <c r="U33" s="11">
-        <v>43072</v>
+        <v>93721</v>
       </c>
       <c r="V33" s="11">
-        <v>62893</v>
+        <v>77200</v>
       </c>
       <c r="W33" s="11">
-        <v>93721</v>
+        <v>60702</v>
       </c>
       <c r="X33" s="11">
-        <v>77200</v>
+        <v>44197</v>
       </c>
       <c r="Y33" s="11">
-        <v>60702</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>44197</v>
-      </c>
-      <c r="AA33" s="11">
         <v>59360</v>
       </c>
+      <c r="Z33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>64</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="BA34" s="15"/>
       <c r="BB34" s="15"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>65</v>
       </c>
@@ -4563,11 +4563,11 @@
       <c r="Y35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA35" s="17" t="s">
-        <v>57</v>
+      <c r="Z35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>0</v>
       </c>
       <c r="AB35" s="17">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>68</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="15"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>69</v>
       </c>
@@ -4777,11 +4777,11 @@
       <c r="Y37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA37" s="17" t="s">
-        <v>57</v>
+      <c r="Z37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>0</v>
       </c>
       <c r="AB37" s="17">
         <v>0</v>
@@ -4865,164 +4865,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19">
-        <v>62467</v>
+        <v>31802</v>
       </c>
       <c r="F38" s="19">
-        <v>40359</v>
+        <v>40134</v>
       </c>
       <c r="G38" s="19">
-        <v>31802</v>
+        <v>64458</v>
       </c>
       <c r="H38" s="19">
-        <v>40134</v>
+        <v>57072</v>
       </c>
       <c r="I38" s="19">
-        <v>64458</v>
+        <v>94480</v>
       </c>
       <c r="J38" s="19">
-        <v>57072</v>
+        <v>109614</v>
       </c>
       <c r="K38" s="19">
-        <v>94480</v>
+        <v>81573</v>
       </c>
       <c r="L38" s="19">
-        <v>109614</v>
+        <v>77875</v>
       </c>
       <c r="M38" s="19">
-        <v>81573</v>
+        <v>92739</v>
       </c>
       <c r="N38" s="19">
-        <v>77875</v>
+        <v>101975</v>
       </c>
       <c r="O38" s="19">
-        <v>92739</v>
+        <v>77004</v>
       </c>
       <c r="P38" s="19">
-        <v>101975</v>
+        <v>86715</v>
       </c>
       <c r="Q38" s="19">
-        <v>77004</v>
+        <v>60226</v>
       </c>
       <c r="R38" s="19">
-        <v>86715</v>
+        <v>109968</v>
       </c>
       <c r="S38" s="19">
-        <v>60226</v>
+        <v>85216</v>
       </c>
       <c r="T38" s="19">
-        <v>109968</v>
+        <v>72617</v>
       </c>
       <c r="U38" s="19">
-        <v>85216</v>
+        <v>116675</v>
       </c>
       <c r="V38" s="19">
-        <v>72617</v>
+        <v>93055</v>
       </c>
       <c r="W38" s="19">
-        <v>116675</v>
+        <v>111055</v>
       </c>
       <c r="X38" s="19">
-        <v>93055</v>
+        <v>55844</v>
       </c>
       <c r="Y38" s="19">
-        <v>111055</v>
+        <v>67827</v>
       </c>
       <c r="Z38" s="19">
-        <v>55844</v>
+        <v>69151</v>
       </c>
       <c r="AA38" s="19">
-        <v>67827</v>
+        <v>57286</v>
       </c>
       <c r="AB38" s="19">
-        <v>69151</v>
+        <v>46300</v>
       </c>
       <c r="AC38" s="19">
-        <v>57286</v>
+        <v>27280</v>
       </c>
       <c r="AD38" s="19">
-        <v>46300</v>
+        <v>36412</v>
       </c>
       <c r="AE38" s="19">
-        <v>27280</v>
+        <v>109447</v>
       </c>
       <c r="AF38" s="19">
-        <v>36412</v>
+        <v>51378</v>
       </c>
       <c r="AG38" s="19">
-        <v>109447</v>
+        <v>57897</v>
       </c>
       <c r="AH38" s="19">
-        <v>51378</v>
+        <v>90520</v>
       </c>
       <c r="AI38" s="19">
-        <v>57897</v>
+        <v>54208</v>
       </c>
       <c r="AJ38" s="19">
-        <v>90520</v>
+        <v>74872</v>
       </c>
       <c r="AK38" s="19">
-        <v>54208</v>
+        <v>94348</v>
       </c>
       <c r="AL38" s="19">
-        <v>74872</v>
+        <v>68351</v>
       </c>
       <c r="AM38" s="19">
-        <v>94348</v>
+        <v>69866</v>
       </c>
       <c r="AN38" s="19">
-        <v>68351</v>
+        <v>77219</v>
       </c>
       <c r="AO38" s="19">
-        <v>69866</v>
+        <v>31096</v>
       </c>
       <c r="AP38" s="19">
-        <v>77219</v>
+        <v>70463</v>
       </c>
       <c r="AQ38" s="19">
-        <v>31096</v>
+        <v>99246</v>
       </c>
       <c r="AR38" s="19">
-        <v>70463</v>
+        <v>86635</v>
       </c>
       <c r="AS38" s="19">
-        <v>99246</v>
+        <v>83801</v>
       </c>
       <c r="AT38" s="19">
-        <v>86635</v>
+        <v>72180</v>
       </c>
       <c r="AU38" s="19">
-        <v>83801</v>
+        <v>68149</v>
       </c>
       <c r="AV38" s="19">
-        <v>72180</v>
+        <v>57570</v>
       </c>
       <c r="AW38" s="19">
-        <v>68149</v>
+        <v>50758</v>
       </c>
       <c r="AX38" s="19">
-        <v>57570</v>
+        <v>46125</v>
       </c>
       <c r="AY38" s="19">
-        <v>50758</v>
+        <v>45376</v>
       </c>
       <c r="AZ38" s="19">
-        <v>46125</v>
+        <v>72968</v>
       </c>
       <c r="BA38" s="19">
-        <v>45376</v>
+        <v>26943</v>
       </c>
       <c r="BB38" s="19">
-        <v>72968</v>
+        <v>34920</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5077,7 +5077,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5132,7 +5132,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5187,7 +5187,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>70</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>55</v>
       </c>
@@ -5465,10 +5465,10 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="F45" s="11">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="G45" s="11">
         <v>0</v>
@@ -5480,26 +5480,26 @@
         <v>0</v>
       </c>
       <c r="J45" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="K45" s="11">
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="M45" s="11">
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <v>0</v>
-      </c>
-      <c r="O45" s="11">
-        <v>0</v>
-      </c>
-      <c r="P45" s="11">
         <v>11326</v>
       </c>
+      <c r="O45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Q45" s="11" t="s">
         <v>57</v>
       </c>
@@ -5527,95 +5527,95 @@
       <c r="Y45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>57</v>
+      <c r="Z45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
-        <v>0</v>
+        <v>60384</v>
       </c>
       <c r="AC45" s="11">
         <v>0</v>
       </c>
       <c r="AD45" s="11">
-        <v>60384</v>
+        <v>42826</v>
       </c>
       <c r="AE45" s="11">
-        <v>0</v>
+        <v>242064</v>
       </c>
       <c r="AF45" s="11">
-        <v>42826</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="11">
-        <v>242064</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="11">
-        <v>0</v>
+        <v>196183</v>
       </c>
       <c r="AI45" s="11">
-        <v>0</v>
+        <v>196101</v>
       </c>
       <c r="AJ45" s="11">
-        <v>196183</v>
+        <v>184633</v>
       </c>
       <c r="AK45" s="11">
-        <v>196101</v>
+        <v>244366</v>
       </c>
       <c r="AL45" s="11">
-        <v>184633</v>
+        <v>155048</v>
       </c>
       <c r="AM45" s="11">
-        <v>244366</v>
+        <v>199137</v>
       </c>
       <c r="AN45" s="11">
-        <v>155048</v>
+        <v>299420</v>
       </c>
       <c r="AO45" s="11">
-        <v>199137</v>
+        <v>97082</v>
       </c>
       <c r="AP45" s="11">
-        <v>299420</v>
+        <v>329677</v>
       </c>
       <c r="AQ45" s="11">
-        <v>97082</v>
+        <v>422578</v>
       </c>
       <c r="AR45" s="11">
-        <v>329677</v>
+        <v>320043</v>
       </c>
       <c r="AS45" s="11">
-        <v>422578</v>
+        <v>185287</v>
       </c>
       <c r="AT45" s="11">
-        <v>320043</v>
+        <v>68669</v>
       </c>
       <c r="AU45" s="11">
-        <v>185287</v>
+        <v>139682</v>
       </c>
       <c r="AV45" s="11">
-        <v>68669</v>
+        <v>132643</v>
       </c>
       <c r="AW45" s="11">
-        <v>139682</v>
+        <v>22556</v>
       </c>
       <c r="AX45" s="11">
-        <v>132643</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="11">
-        <v>22556</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
-        <v>0</v>
+        <v>235839</v>
       </c>
       <c r="BA45" s="11">
-        <v>0</v>
+        <v>66995</v>
       </c>
       <c r="BB45" s="11">
-        <v>235839</v>
+        <v>148140</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>58</v>
       </c>
@@ -5653,11 +5653,11 @@
       <c r="N46" s="13">
         <v>0</v>
       </c>
-      <c r="O46" s="13">
-        <v>0</v>
-      </c>
-      <c r="P46" s="13">
-        <v>0</v>
+      <c r="O46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>57</v>
@@ -5686,95 +5686,95 @@
       <c r="Y46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>57</v>
+      <c r="Z46" s="13">
+        <v>165672</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>140378</v>
       </c>
       <c r="AB46" s="13">
-        <v>165672</v>
+        <v>64842</v>
       </c>
       <c r="AC46" s="13">
-        <v>140378</v>
+        <v>54885</v>
       </c>
       <c r="AD46" s="13">
-        <v>64842</v>
+        <v>55580</v>
       </c>
       <c r="AE46" s="13">
-        <v>54885</v>
+        <v>123875</v>
       </c>
       <c r="AF46" s="13">
-        <v>55580</v>
+        <v>124775</v>
       </c>
       <c r="AG46" s="13">
-        <v>123875</v>
+        <v>181996</v>
       </c>
       <c r="AH46" s="13">
-        <v>124775</v>
+        <v>148374</v>
       </c>
       <c r="AI46" s="13">
-        <v>181996</v>
+        <v>94153</v>
       </c>
       <c r="AJ46" s="13">
-        <v>148374</v>
+        <v>223673</v>
       </c>
       <c r="AK46" s="13">
-        <v>94153</v>
+        <v>262463</v>
       </c>
       <c r="AL46" s="13">
-        <v>223673</v>
+        <v>180814</v>
       </c>
       <c r="AM46" s="13">
-        <v>262463</v>
+        <v>130491</v>
       </c>
       <c r="AN46" s="13">
-        <v>180814</v>
+        <v>100132</v>
       </c>
       <c r="AO46" s="13">
-        <v>130491</v>
+        <v>54410</v>
       </c>
       <c r="AP46" s="13">
-        <v>100132</v>
+        <v>57866</v>
       </c>
       <c r="AQ46" s="13">
-        <v>54410</v>
+        <v>136539</v>
       </c>
       <c r="AR46" s="13">
-        <v>57866</v>
+        <v>168762</v>
       </c>
       <c r="AS46" s="13">
-        <v>136539</v>
+        <v>247379</v>
       </c>
       <c r="AT46" s="13">
-        <v>168762</v>
+        <v>300713</v>
       </c>
       <c r="AU46" s="13">
-        <v>247379</v>
+        <v>260169</v>
       </c>
       <c r="AV46" s="13">
-        <v>300713</v>
+        <v>196268</v>
       </c>
       <c r="AW46" s="13">
-        <v>260169</v>
+        <v>238550</v>
       </c>
       <c r="AX46" s="13">
-        <v>196268</v>
+        <v>238758</v>
       </c>
       <c r="AY46" s="13">
-        <v>238550</v>
+        <v>227185</v>
       </c>
       <c r="AZ46" s="13">
-        <v>238758</v>
+        <v>177155</v>
       </c>
       <c r="BA46" s="13">
-        <v>227185</v>
+        <v>72172</v>
       </c>
       <c r="BB46" s="13">
-        <v>177155</v>
+        <v>84220</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
@@ -5812,45 +5812,45 @@
       <c r="N47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>57</v>
+      <c r="O47" s="11">
+        <v>718</v>
+      </c>
+      <c r="P47" s="11">
+        <v>75353</v>
       </c>
       <c r="Q47" s="11">
-        <v>718</v>
+        <v>38453</v>
       </c>
       <c r="R47" s="11">
-        <v>75353</v>
+        <v>174233</v>
       </c>
       <c r="S47" s="11">
-        <v>38453</v>
+        <v>85618</v>
       </c>
       <c r="T47" s="11">
-        <v>174233</v>
+        <v>12615</v>
       </c>
       <c r="U47" s="11">
-        <v>85618</v>
+        <v>48146</v>
       </c>
       <c r="V47" s="11">
-        <v>12615</v>
+        <v>28787</v>
       </c>
       <c r="W47" s="11">
-        <v>48146</v>
+        <v>155512</v>
       </c>
       <c r="X47" s="11">
-        <v>28787</v>
+        <v>18379</v>
       </c>
       <c r="Y47" s="11">
-        <v>155512</v>
-      </c>
-      <c r="Z47" s="11">
-        <v>18379</v>
-      </c>
-      <c r="AA47" s="11">
         <v>5160</v>
       </c>
+      <c r="Z47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB47" s="11" t="s">
         <v>57</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
@@ -5956,27 +5956,27 @@
       <c r="I48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>57</v>
+      <c r="J48" s="13">
+        <v>806</v>
+      </c>
+      <c r="K48" s="13">
+        <v>142</v>
       </c>
       <c r="L48" s="13">
-        <v>806</v>
+        <v>3092</v>
       </c>
       <c r="M48" s="13">
-        <v>142</v>
+        <v>2056</v>
       </c>
       <c r="N48" s="13">
-        <v>3092</v>
-      </c>
-      <c r="O48" s="13">
-        <v>2056</v>
-      </c>
-      <c r="P48" s="13">
         <v>449</v>
       </c>
+      <c r="O48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Q48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>61</v>
       </c>
@@ -6101,157 +6101,157 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>5863</v>
+        <v>7213</v>
       </c>
       <c r="F49" s="11">
-        <v>5909</v>
+        <v>2970</v>
       </c>
       <c r="G49" s="11">
-        <v>7213</v>
+        <v>1652</v>
       </c>
       <c r="H49" s="11">
-        <v>2970</v>
+        <v>6408</v>
       </c>
       <c r="I49" s="11">
-        <v>1652</v>
+        <v>8960</v>
       </c>
       <c r="J49" s="11">
-        <v>6408</v>
+        <v>8173</v>
       </c>
       <c r="K49" s="11">
-        <v>8960</v>
+        <v>6774</v>
       </c>
       <c r="L49" s="11">
+        <v>10694</v>
+      </c>
+      <c r="M49" s="11">
+        <v>7256</v>
+      </c>
+      <c r="N49" s="11">
+        <v>7564</v>
+      </c>
+      <c r="O49" s="11">
         <v>8173</v>
       </c>
-      <c r="M49" s="11">
-        <v>6774</v>
-      </c>
-      <c r="N49" s="11">
-        <v>10694</v>
-      </c>
-      <c r="O49" s="11">
-        <v>7256</v>
-      </c>
       <c r="P49" s="11">
-        <v>7564</v>
+        <v>8975</v>
       </c>
       <c r="Q49" s="11">
-        <v>8173</v>
+        <v>7926</v>
       </c>
       <c r="R49" s="11">
-        <v>8975</v>
+        <v>8008</v>
       </c>
       <c r="S49" s="11">
-        <v>7926</v>
+        <v>9616</v>
       </c>
       <c r="T49" s="11">
-        <v>8008</v>
+        <v>7195</v>
       </c>
       <c r="U49" s="11">
-        <v>9616</v>
+        <v>8165</v>
       </c>
       <c r="V49" s="11">
-        <v>7195</v>
+        <v>10102</v>
       </c>
       <c r="W49" s="11">
-        <v>8165</v>
+        <v>12024</v>
       </c>
       <c r="X49" s="11">
-        <v>10102</v>
+        <v>16105</v>
       </c>
       <c r="Y49" s="11">
-        <v>12024</v>
+        <v>17186</v>
       </c>
       <c r="Z49" s="11">
-        <v>16105</v>
+        <v>20307</v>
       </c>
       <c r="AA49" s="11">
-        <v>17186</v>
+        <v>19822</v>
       </c>
       <c r="AB49" s="11">
-        <v>20307</v>
+        <v>20937</v>
       </c>
       <c r="AC49" s="11">
-        <v>19822</v>
+        <v>21112</v>
       </c>
       <c r="AD49" s="11">
-        <v>20937</v>
+        <v>17649</v>
       </c>
       <c r="AE49" s="11">
-        <v>21112</v>
+        <v>24159</v>
       </c>
       <c r="AF49" s="11">
-        <v>17649</v>
+        <v>14220</v>
       </c>
       <c r="AG49" s="11">
-        <v>24159</v>
+        <v>32519</v>
       </c>
       <c r="AH49" s="11">
-        <v>14220</v>
+        <v>31505</v>
       </c>
       <c r="AI49" s="11">
-        <v>32519</v>
+        <v>27612</v>
       </c>
       <c r="AJ49" s="11">
-        <v>31505</v>
+        <v>28067</v>
       </c>
       <c r="AK49" s="11">
-        <v>27612</v>
+        <v>42758</v>
       </c>
       <c r="AL49" s="11">
-        <v>28067</v>
+        <v>36085</v>
       </c>
       <c r="AM49" s="11">
-        <v>42758</v>
+        <v>41362</v>
       </c>
       <c r="AN49" s="11">
-        <v>36085</v>
+        <v>35285</v>
       </c>
       <c r="AO49" s="11">
-        <v>41362</v>
+        <v>10020</v>
       </c>
       <c r="AP49" s="11">
-        <v>35285</v>
+        <v>7529</v>
       </c>
       <c r="AQ49" s="11">
-        <v>10020</v>
+        <v>29149</v>
       </c>
       <c r="AR49" s="11">
-        <v>7529</v>
+        <v>31947</v>
       </c>
       <c r="AS49" s="11">
-        <v>29149</v>
+        <v>44783</v>
       </c>
       <c r="AT49" s="11">
-        <v>31947</v>
+        <v>50922</v>
       </c>
       <c r="AU49" s="11">
-        <v>44783</v>
+        <v>41762</v>
       </c>
       <c r="AV49" s="11">
-        <v>50922</v>
+        <v>40515</v>
       </c>
       <c r="AW49" s="11">
-        <v>41762</v>
+        <v>54279</v>
       </c>
       <c r="AX49" s="11">
-        <v>40515</v>
+        <v>45484</v>
       </c>
       <c r="AY49" s="11">
-        <v>54279</v>
+        <v>40904</v>
       </c>
       <c r="AZ49" s="11">
-        <v>45484</v>
+        <v>37217</v>
       </c>
       <c r="BA49" s="11">
-        <v>40904</v>
+        <v>32230</v>
       </c>
       <c r="BB49" s="11">
-        <v>37217</v>
+        <v>33795</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>62</v>
       </c>
@@ -6260,40 +6260,40 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>12325</v>
+        <v>1023</v>
       </c>
       <c r="F50" s="13">
-        <v>454</v>
+        <v>1776</v>
       </c>
       <c r="G50" s="13">
-        <v>1023</v>
+        <v>4170</v>
       </c>
       <c r="H50" s="13">
-        <v>1776</v>
+        <v>5272</v>
       </c>
       <c r="I50" s="13">
-        <v>4170</v>
+        <v>2300</v>
       </c>
       <c r="J50" s="13">
-        <v>5272</v>
+        <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>2300</v>
+        <v>580</v>
       </c>
       <c r="L50" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M50" s="13">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N50" s="13">
-        <v>24</v>
-      </c>
-      <c r="O50" s="13">
-        <v>0</v>
-      </c>
-      <c r="P50" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q50" s="13" t="s">
         <v>57</v>
@@ -6410,7 +6410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>63</v>
       </c>
@@ -6419,74 +6419,74 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>58536</v>
+        <v>29700</v>
       </c>
       <c r="F51" s="11">
-        <v>40902</v>
+        <v>43307</v>
       </c>
       <c r="G51" s="11">
-        <v>29700</v>
+        <v>72360</v>
       </c>
       <c r="H51" s="11">
-        <v>43307</v>
+        <v>58414</v>
       </c>
       <c r="I51" s="11">
-        <v>72360</v>
+        <v>105375</v>
       </c>
       <c r="J51" s="11">
-        <v>58414</v>
+        <v>108631</v>
       </c>
       <c r="K51" s="11">
-        <v>105375</v>
+        <v>127061</v>
       </c>
       <c r="L51" s="11">
-        <v>108631</v>
+        <v>122671</v>
       </c>
       <c r="M51" s="11">
-        <v>127061</v>
+        <v>152830</v>
       </c>
       <c r="N51" s="11">
-        <v>122671</v>
+        <v>160764</v>
       </c>
       <c r="O51" s="11">
-        <v>152830</v>
+        <v>126595</v>
       </c>
       <c r="P51" s="11">
-        <v>160764</v>
+        <v>70780</v>
       </c>
       <c r="Q51" s="11">
-        <v>126595</v>
+        <v>55363</v>
       </c>
       <c r="R51" s="11">
-        <v>70780</v>
+        <v>44859</v>
       </c>
       <c r="S51" s="11">
-        <v>55363</v>
+        <v>73808</v>
       </c>
       <c r="T51" s="11">
-        <v>44859</v>
+        <v>116962</v>
       </c>
       <c r="U51" s="11">
-        <v>73808</v>
+        <v>171613</v>
       </c>
       <c r="V51" s="11">
-        <v>116962</v>
+        <v>143271</v>
       </c>
       <c r="W51" s="11">
-        <v>171613</v>
+        <v>137286</v>
       </c>
       <c r="X51" s="11">
-        <v>143271</v>
+        <v>107127</v>
       </c>
       <c r="Y51" s="11">
-        <v>137286</v>
-      </c>
-      <c r="Z51" s="11">
-        <v>107127</v>
-      </c>
-      <c r="AA51" s="11">
         <v>147445</v>
       </c>
+      <c r="Z51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA51" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB51" s="11" t="s">
         <v>57</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>65</v>
       </c>
@@ -6697,11 +6697,11 @@
       <c r="Y53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA53" s="17" t="s">
-        <v>57</v>
+      <c r="Z53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="17">
+        <v>0</v>
       </c>
       <c r="AB53" s="17">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>73</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>69</v>
       </c>
@@ -6913,11 +6913,11 @@
       <c r="Y55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA55" s="17" t="s">
-        <v>57</v>
+      <c r="Z55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="17">
+        <v>0</v>
       </c>
       <c r="AB55" s="17">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>74</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>75</v>
       </c>
@@ -7129,11 +7129,11 @@
       <c r="Y57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA57" s="11" t="s">
-        <v>57</v>
+      <c r="Z57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0</v>
       </c>
       <c r="AB57" s="11">
         <v>0</v>
@@ -7217,164 +7217,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19">
-        <v>78815</v>
+        <v>37936</v>
       </c>
       <c r="F58" s="19">
-        <v>48514</v>
+        <v>48053</v>
       </c>
       <c r="G58" s="19">
-        <v>37936</v>
+        <v>78182</v>
       </c>
       <c r="H58" s="19">
-        <v>48053</v>
+        <v>70094</v>
       </c>
       <c r="I58" s="19">
-        <v>78182</v>
+        <v>116635</v>
       </c>
       <c r="J58" s="19">
-        <v>70094</v>
+        <v>140164</v>
       </c>
       <c r="K58" s="19">
-        <v>116635</v>
+        <v>134557</v>
       </c>
       <c r="L58" s="19">
-        <v>140164</v>
+        <v>136481</v>
       </c>
       <c r="M58" s="19">
-        <v>134557</v>
+        <v>162142</v>
       </c>
       <c r="N58" s="19">
-        <v>136481</v>
+        <v>180103</v>
       </c>
       <c r="O58" s="19">
-        <v>162142</v>
+        <v>135486</v>
       </c>
       <c r="P58" s="19">
-        <v>180103</v>
+        <v>155108</v>
       </c>
       <c r="Q58" s="19">
-        <v>135486</v>
+        <v>101742</v>
       </c>
       <c r="R58" s="19">
-        <v>155108</v>
+        <v>227100</v>
       </c>
       <c r="S58" s="19">
-        <v>101742</v>
+        <v>169042</v>
       </c>
       <c r="T58" s="19">
-        <v>227100</v>
+        <v>136772</v>
       </c>
       <c r="U58" s="19">
-        <v>169042</v>
+        <v>227924</v>
       </c>
       <c r="V58" s="19">
-        <v>136772</v>
+        <v>182160</v>
       </c>
       <c r="W58" s="19">
-        <v>227924</v>
+        <v>304822</v>
       </c>
       <c r="X58" s="19">
-        <v>182160</v>
+        <v>141611</v>
       </c>
       <c r="Y58" s="19">
-        <v>304822</v>
+        <v>169791</v>
       </c>
       <c r="Z58" s="19">
-        <v>141611</v>
+        <v>185979</v>
       </c>
       <c r="AA58" s="19">
-        <v>169791</v>
+        <v>160200</v>
       </c>
       <c r="AB58" s="19">
-        <v>185979</v>
+        <v>146163</v>
       </c>
       <c r="AC58" s="19">
-        <v>160200</v>
+        <v>75997</v>
       </c>
       <c r="AD58" s="19">
-        <v>146163</v>
+        <v>116055</v>
       </c>
       <c r="AE58" s="19">
-        <v>75997</v>
+        <v>390098</v>
       </c>
       <c r="AF58" s="19">
-        <v>116055</v>
+        <v>138995</v>
       </c>
       <c r="AG58" s="19">
-        <v>390098</v>
+        <v>214515</v>
       </c>
       <c r="AH58" s="19">
-        <v>138995</v>
+        <v>376062</v>
       </c>
       <c r="AI58" s="19">
-        <v>214515</v>
+        <v>317866</v>
       </c>
       <c r="AJ58" s="19">
-        <v>376062</v>
+        <v>436373</v>
       </c>
       <c r="AK58" s="19">
-        <v>317866</v>
+        <v>549587</v>
       </c>
       <c r="AL58" s="19">
-        <v>436373</v>
+        <v>371947</v>
       </c>
       <c r="AM58" s="19">
-        <v>549587</v>
+        <v>370990</v>
       </c>
       <c r="AN58" s="19">
-        <v>371947</v>
+        <v>434837</v>
       </c>
       <c r="AO58" s="19">
-        <v>370990</v>
+        <v>161512</v>
       </c>
       <c r="AP58" s="19">
-        <v>434837</v>
+        <v>395072</v>
       </c>
       <c r="AQ58" s="19">
-        <v>161512</v>
+        <v>588266</v>
       </c>
       <c r="AR58" s="19">
-        <v>395072</v>
+        <v>520752</v>
       </c>
       <c r="AS58" s="19">
-        <v>588266</v>
+        <v>477449</v>
       </c>
       <c r="AT58" s="19">
-        <v>520752</v>
+        <v>420304</v>
       </c>
       <c r="AU58" s="19">
-        <v>477449</v>
+        <v>441613</v>
       </c>
       <c r="AV58" s="19">
-        <v>420304</v>
+        <v>369426</v>
       </c>
       <c r="AW58" s="19">
-        <v>441613</v>
+        <v>315385</v>
       </c>
       <c r="AX58" s="19">
-        <v>369426</v>
+        <v>284242</v>
       </c>
       <c r="AY58" s="19">
-        <v>315385</v>
+        <v>268089</v>
       </c>
       <c r="AZ58" s="19">
-        <v>284242</v>
+        <v>450211</v>
       </c>
       <c r="BA58" s="19">
-        <v>268089</v>
+        <v>171397</v>
       </c>
       <c r="BB58" s="19">
-        <v>450211</v>
+        <v>266155</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7429,7 +7429,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7484,7 +7484,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7539,7 +7539,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>76</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7751,7 +7751,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>55</v>
       </c>
@@ -7817,10 +7817,10 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>876730</v>
+        <v>0</v>
       </c>
       <c r="F65" s="11">
-        <v>905072</v>
+        <v>0</v>
       </c>
       <c r="G65" s="11">
         <v>0</v>
@@ -7832,26 +7832,26 @@
         <v>0</v>
       </c>
       <c r="J65" s="11">
-        <v>0</v>
+        <v>1899924</v>
       </c>
       <c r="K65" s="11">
         <v>0</v>
       </c>
       <c r="L65" s="11">
-        <v>1899924</v>
+        <v>0</v>
       </c>
       <c r="M65" s="11">
         <v>0</v>
       </c>
       <c r="N65" s="11">
-        <v>0</v>
-      </c>
-      <c r="O65" s="11">
-        <v>0</v>
-      </c>
-      <c r="P65" s="11">
         <v>1815937</v>
       </c>
+      <c r="O65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Q65" s="11" t="s">
         <v>57</v>
       </c>
@@ -7885,89 +7885,89 @@
       <c r="AA65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>57</v>
+      <c r="AB65" s="11">
+        <v>4279821</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AD65" s="11">
-        <v>4279821</v>
-      </c>
-      <c r="AE65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF65" s="11">
         <v>3936213</v>
       </c>
-      <c r="AG65" s="11">
+      <c r="AE65" s="11">
         <v>4321260</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI65" s="11" t="s">
-        <v>57</v>
+      <c r="AF65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>4433113</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>7837143</v>
       </c>
       <c r="AJ65" s="11">
-        <v>4433113</v>
+        <v>5499777</v>
       </c>
       <c r="AK65" s="11">
-        <v>7837143</v>
+        <v>6210537</v>
       </c>
       <c r="AL65" s="11">
-        <v>5499777</v>
+        <v>7456023</v>
       </c>
       <c r="AM65" s="11">
-        <v>6210537</v>
+        <v>6269070</v>
       </c>
       <c r="AN65" s="11">
-        <v>7456023</v>
+        <v>6452600</v>
       </c>
       <c r="AO65" s="11">
-        <v>6269070</v>
+        <v>6420343</v>
       </c>
       <c r="AP65" s="11">
-        <v>6452600</v>
+        <v>5990860</v>
       </c>
       <c r="AQ65" s="11">
-        <v>6420343</v>
+        <v>6356755</v>
       </c>
       <c r="AR65" s="11">
-        <v>5990860</v>
+        <v>6383497</v>
       </c>
       <c r="AS65" s="11">
-        <v>6356755</v>
+        <v>6500158</v>
       </c>
       <c r="AT65" s="11">
-        <v>6383497</v>
+        <v>6866900</v>
       </c>
       <c r="AU65" s="11">
-        <v>6500158</v>
+        <v>6984100</v>
       </c>
       <c r="AV65" s="11">
-        <v>6866900</v>
+        <v>6632150</v>
       </c>
       <c r="AW65" s="11">
-        <v>6984100</v>
-      </c>
-      <c r="AX65" s="11">
-        <v>6632150</v>
-      </c>
-      <c r="AY65" s="11">
         <v>5906258</v>
       </c>
-      <c r="AZ65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA65" s="11" t="s">
-        <v>57</v>
+      <c r="AX65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ65" s="11">
+        <v>6379372</v>
+      </c>
+      <c r="BA65" s="11">
+        <v>6646329</v>
       </c>
       <c r="BB65" s="11">
-        <v>6379372</v>
+        <v>9507734</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>58</v>
       </c>
@@ -8005,11 +8005,11 @@
       <c r="N66" s="13">
         <v>0</v>
       </c>
-      <c r="O66" s="13">
-        <v>0</v>
-      </c>
-      <c r="P66" s="13">
-        <v>0</v>
+      <c r="O66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q66" s="13" t="s">
         <v>57</v>
@@ -8038,95 +8038,95 @@
       <c r="Y66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA66" s="13" t="s">
-        <v>57</v>
+      <c r="Z66" s="13">
+        <v>2639182</v>
+      </c>
+      <c r="AA66" s="13">
+        <v>2703112</v>
       </c>
       <c r="AB66" s="13">
-        <v>2639182</v>
+        <v>2534772</v>
       </c>
       <c r="AC66" s="13">
-        <v>2703112</v>
+        <v>2501823</v>
       </c>
       <c r="AD66" s="13">
-        <v>2534772</v>
+        <v>2629885</v>
       </c>
       <c r="AE66" s="13">
-        <v>2501823</v>
+        <v>2618534</v>
       </c>
       <c r="AF66" s="13">
-        <v>2629885</v>
+        <v>2636277</v>
       </c>
       <c r="AG66" s="13">
-        <v>2618534</v>
+        <v>3702944</v>
       </c>
       <c r="AH66" s="13">
-        <v>2636277</v>
+        <v>3683108</v>
       </c>
       <c r="AI66" s="13">
-        <v>3702944</v>
+        <v>3688514</v>
       </c>
       <c r="AJ66" s="13">
-        <v>3683108</v>
+        <v>6178129</v>
       </c>
       <c r="AK66" s="13">
-        <v>3688514</v>
+        <v>5408597</v>
       </c>
       <c r="AL66" s="13">
-        <v>6178129</v>
+        <v>4424450</v>
       </c>
       <c r="AM66" s="13">
-        <v>5408597</v>
+        <v>4167577</v>
       </c>
       <c r="AN66" s="13">
-        <v>4424450</v>
+        <v>4054091</v>
       </c>
       <c r="AO66" s="13">
-        <v>4167577</v>
+        <v>3843057</v>
       </c>
       <c r="AP66" s="13">
-        <v>4054091</v>
+        <v>4100191</v>
       </c>
       <c r="AQ66" s="13">
-        <v>3843057</v>
+        <v>4895099</v>
       </c>
       <c r="AR66" s="13">
-        <v>4100191</v>
+        <v>5408692</v>
       </c>
       <c r="AS66" s="13">
-        <v>4895099</v>
+        <v>5106600</v>
       </c>
       <c r="AT66" s="13">
-        <v>5408692</v>
+        <v>5535852</v>
       </c>
       <c r="AU66" s="13">
-        <v>5106600</v>
+        <v>6210618</v>
       </c>
       <c r="AV66" s="13">
-        <v>5535852</v>
+        <v>6238454</v>
       </c>
       <c r="AW66" s="13">
-        <v>6210618</v>
+        <v>6130342</v>
       </c>
       <c r="AX66" s="13">
-        <v>6238454</v>
+        <v>6032746</v>
       </c>
       <c r="AY66" s="13">
-        <v>6130342</v>
+        <v>5748172</v>
       </c>
       <c r="AZ66" s="13">
-        <v>6032746</v>
+        <v>5753093</v>
       </c>
       <c r="BA66" s="13">
-        <v>5748172</v>
+        <v>5817508</v>
       </c>
       <c r="BB66" s="13">
-        <v>5753093</v>
+        <v>5755878</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
@@ -8164,45 +8164,45 @@
       <c r="N67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>57</v>
+      <c r="O67" s="11">
+        <v>1746959</v>
+      </c>
+      <c r="P67" s="11">
+        <v>1994363</v>
       </c>
       <c r="Q67" s="11">
-        <v>1746959</v>
+        <v>1858710</v>
       </c>
       <c r="R67" s="11">
-        <v>1994363</v>
+        <v>2258396</v>
       </c>
       <c r="S67" s="11">
-        <v>1858710</v>
+        <v>2361811</v>
       </c>
       <c r="T67" s="11">
-        <v>2258396</v>
+        <v>2428296</v>
       </c>
       <c r="U67" s="11">
-        <v>2361811</v>
+        <v>2687019</v>
       </c>
       <c r="V67" s="11">
-        <v>2428296</v>
+        <v>2888521</v>
       </c>
       <c r="W67" s="11">
-        <v>2687019</v>
+        <v>3528429</v>
       </c>
       <c r="X67" s="11">
-        <v>2888521</v>
+        <v>3485492</v>
       </c>
       <c r="Y67" s="11">
-        <v>3528429</v>
-      </c>
-      <c r="Z67" s="11">
-        <v>3485492</v>
-      </c>
-      <c r="AA67" s="11">
         <v>3493568</v>
       </c>
+      <c r="Z67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB67" s="11" t="s">
         <v>57</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>60</v>
       </c>
@@ -8308,27 +8308,27 @@
       <c r="I68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>57</v>
+      <c r="J68" s="13">
+        <v>165299</v>
+      </c>
+      <c r="K68" s="13">
+        <v>717172</v>
       </c>
       <c r="L68" s="13">
-        <v>165299</v>
+        <v>1468186</v>
       </c>
       <c r="M68" s="13">
-        <v>717172</v>
+        <v>1840645</v>
       </c>
       <c r="N68" s="13">
-        <v>1468186</v>
-      </c>
-      <c r="O68" s="13">
-        <v>1840645</v>
-      </c>
-      <c r="P68" s="13">
         <v>1840164</v>
       </c>
+      <c r="O68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Q68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>61</v>
       </c>
@@ -8453,157 +8453,157 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>1171897</v>
+        <v>1257716</v>
       </c>
       <c r="F69" s="11">
-        <v>1111968</v>
+        <v>1225753</v>
       </c>
       <c r="G69" s="11">
-        <v>1257716</v>
+        <v>1316335</v>
       </c>
       <c r="H69" s="11">
-        <v>1225753</v>
+        <v>1281088</v>
       </c>
       <c r="I69" s="11">
-        <v>1316335</v>
+        <v>1178017</v>
       </c>
       <c r="J69" s="11">
-        <v>1281088</v>
+        <v>1425109</v>
       </c>
       <c r="K69" s="11">
-        <v>1178017</v>
+        <v>1329539</v>
       </c>
       <c r="L69" s="11">
-        <v>1425109</v>
+        <v>1484247</v>
       </c>
       <c r="M69" s="11">
-        <v>1329539</v>
+        <v>1460842</v>
       </c>
       <c r="N69" s="11">
-        <v>1484247</v>
+        <v>1452660</v>
       </c>
       <c r="O69" s="11">
-        <v>1460842</v>
+        <v>1473143</v>
       </c>
       <c r="P69" s="11">
-        <v>1452660</v>
+        <v>1454619</v>
       </c>
       <c r="Q69" s="11">
-        <v>1473143</v>
+        <v>1576059</v>
       </c>
       <c r="R69" s="11">
-        <v>1454619</v>
+        <v>1592048</v>
       </c>
       <c r="S69" s="11">
-        <v>1576059</v>
+        <v>1631767</v>
       </c>
       <c r="T69" s="11">
-        <v>1592048</v>
+        <v>1588651</v>
       </c>
       <c r="U69" s="11">
-        <v>1631767</v>
+        <v>1621326</v>
       </c>
       <c r="V69" s="11">
-        <v>1588651</v>
+        <v>1715402</v>
       </c>
       <c r="W69" s="11">
-        <v>1621326</v>
+        <v>1914955</v>
       </c>
       <c r="X69" s="11">
-        <v>1715402</v>
+        <v>2526671</v>
       </c>
       <c r="Y69" s="11">
-        <v>1914955</v>
+        <v>2458655</v>
       </c>
       <c r="Z69" s="11">
-        <v>2526671</v>
+        <v>3184413</v>
       </c>
       <c r="AA69" s="11">
-        <v>2458655</v>
+        <v>3702279</v>
       </c>
       <c r="AB69" s="11">
-        <v>3184413</v>
+        <v>3167474</v>
       </c>
       <c r="AC69" s="11">
-        <v>3702279</v>
+        <v>3952078</v>
       </c>
       <c r="AD69" s="11">
-        <v>3167474</v>
+        <v>4012960</v>
       </c>
       <c r="AE69" s="11">
-        <v>3952078</v>
+        <v>3945615</v>
       </c>
       <c r="AF69" s="11">
-        <v>4012960</v>
+        <v>3512846</v>
       </c>
       <c r="AG69" s="11">
-        <v>3945615</v>
+        <v>3717307</v>
       </c>
       <c r="AH69" s="11">
-        <v>3512846</v>
+        <v>5267514</v>
       </c>
       <c r="AI69" s="11">
-        <v>3717307</v>
+        <v>7544262</v>
       </c>
       <c r="AJ69" s="11">
-        <v>5267514</v>
+        <v>5506572</v>
       </c>
       <c r="AK69" s="11">
-        <v>7544262</v>
+        <v>6604572</v>
       </c>
       <c r="AL69" s="11">
-        <v>5506572</v>
+        <v>5394678</v>
       </c>
       <c r="AM69" s="11">
-        <v>6604572</v>
+        <v>6091605</v>
       </c>
       <c r="AN69" s="11">
-        <v>5394678</v>
+        <v>5768351</v>
       </c>
       <c r="AO69" s="11">
-        <v>6091605</v>
+        <v>5514584</v>
       </c>
       <c r="AP69" s="11">
-        <v>5768351</v>
+        <v>5703788</v>
       </c>
       <c r="AQ69" s="11">
-        <v>5514584</v>
+        <v>5978056</v>
       </c>
       <c r="AR69" s="11">
-        <v>5703788</v>
+        <v>6031150</v>
       </c>
       <c r="AS69" s="11">
-        <v>5978056</v>
+        <v>6534802</v>
       </c>
       <c r="AT69" s="11">
-        <v>6031150</v>
+        <v>6479450</v>
       </c>
       <c r="AU69" s="11">
-        <v>6534802</v>
+        <v>6673378</v>
       </c>
       <c r="AV69" s="11">
-        <v>6479450</v>
+        <v>6632018</v>
       </c>
       <c r="AW69" s="11">
-        <v>6673378</v>
+        <v>6762896</v>
       </c>
       <c r="AX69" s="11">
-        <v>6632018</v>
+        <v>6946243</v>
       </c>
       <c r="AY69" s="11">
-        <v>6762896</v>
+        <v>6988553</v>
       </c>
       <c r="AZ69" s="11">
-        <v>6946243</v>
+        <v>7148867</v>
       </c>
       <c r="BA69" s="11">
-        <v>6988553</v>
+        <v>7231322</v>
       </c>
       <c r="BB69" s="11">
-        <v>7148867</v>
+        <v>7179732</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>62</v>
       </c>
@@ -8612,40 +8612,40 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>1691136</v>
+        <v>994169</v>
       </c>
       <c r="F70" s="13">
-        <v>1227027</v>
+        <v>1462932</v>
       </c>
       <c r="G70" s="13">
-        <v>994169</v>
+        <v>1564728</v>
       </c>
       <c r="H70" s="13">
-        <v>1462932</v>
+        <v>1676312</v>
       </c>
       <c r="I70" s="13">
-        <v>1564728</v>
+        <v>1749049</v>
       </c>
       <c r="J70" s="13">
-        <v>1676312</v>
+        <v>0</v>
       </c>
       <c r="K70" s="13">
-        <v>1749049</v>
+        <v>1000000</v>
       </c>
       <c r="L70" s="13">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="M70" s="13">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="O70" s="13">
-        <v>0</v>
-      </c>
-      <c r="P70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Q70" s="13" t="s">
         <v>57</v>
@@ -8762,7 +8762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>63</v>
       </c>
@@ -8771,73 +8771,73 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>1224833</v>
+        <v>1186197</v>
       </c>
       <c r="F71" s="11">
-        <v>1228473</v>
+        <v>1186591</v>
       </c>
       <c r="G71" s="11">
-        <v>1186197</v>
+        <v>1195282</v>
       </c>
       <c r="H71" s="11">
-        <v>1186591</v>
+        <v>1193950</v>
       </c>
       <c r="I71" s="11">
-        <v>1195282</v>
+        <v>1231606</v>
       </c>
       <c r="J71" s="11">
-        <v>1193950</v>
+        <v>1246741</v>
       </c>
       <c r="K71" s="11">
-        <v>1231606</v>
+        <v>1678481</v>
       </c>
       <c r="L71" s="11">
-        <v>1246741</v>
+        <v>1789772</v>
       </c>
       <c r="M71" s="11">
-        <v>1678481</v>
+        <v>1763660</v>
       </c>
       <c r="N71" s="11">
-        <v>1789772</v>
+        <v>1780589</v>
       </c>
       <c r="O71" s="11">
-        <v>1763660</v>
+        <v>1781899</v>
       </c>
       <c r="P71" s="11">
-        <v>1780589</v>
+        <v>1655208</v>
       </c>
       <c r="Q71" s="11">
-        <v>1781899</v>
+        <v>1604306</v>
       </c>
       <c r="R71" s="11">
-        <v>1655208</v>
+        <v>1614272</v>
       </c>
       <c r="S71" s="11">
-        <v>1604306</v>
+        <v>1713596</v>
       </c>
       <c r="T71" s="11">
-        <v>1614272</v>
+        <v>1859698</v>
       </c>
       <c r="U71" s="11">
-        <v>1713596</v>
+        <v>1831105</v>
       </c>
       <c r="V71" s="11">
-        <v>1859698</v>
+        <v>1855842</v>
       </c>
       <c r="W71" s="11">
-        <v>1831105</v>
+        <v>2261639</v>
       </c>
       <c r="X71" s="11">
-        <v>1855842</v>
+        <v>2423852</v>
       </c>
       <c r="Y71" s="11">
-        <v>2261639</v>
-      </c>
-      <c r="Z71" s="11">
-        <v>2423852</v>
-      </c>
-      <c r="AA71" s="11">
         <v>2483912</v>
+      </c>
+      <c r="Z71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB71" s="11" t="s">
         <v>57</v>
